--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invent equipos, precios mantto'!$A$2:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invent equipos, precios mantto'!$A$2:$H$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
   <si>
     <t>SEDE</t>
   </si>
@@ -458,6 +458,24 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
 </sst>
 </file>
 
@@ -466,13 +484,13 @@
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,16 +536,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1049,7 +1057,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1067,79 +1075,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,179 +1156,179 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="5" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="6" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="6" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1330,7 +1338,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,7 +1347,7 @@
     <xf numFmtId="44" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,7 +1356,7 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1360,7 +1368,7 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1369,7 +1377,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1386,7 @@
     <xf numFmtId="44" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1387,7 +1395,7 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1399,49 +1407,49 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1450,15 +1458,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1477,56 +1485,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1626,7 +1634,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1698,9 +1706,6 @@
           <cell r="N80">
             <v>0.53604803823901481</v>
           </cell>
-          <cell r="O80">
-            <v>0</v>
-          </cell>
           <cell r="P80">
             <v>39030605.210000001</v>
           </cell>
@@ -1850,9 +1855,6 @@
           <cell r="N81">
             <v>0.15326882988051116</v>
           </cell>
-          <cell r="O81">
-            <v>0</v>
-          </cell>
           <cell r="P81">
             <v>199505248</v>
           </cell>
@@ -2002,9 +2004,6 @@
           <cell r="N82">
             <v>0.54504135215335836</v>
           </cell>
-          <cell r="O82">
-            <v>0</v>
-          </cell>
           <cell r="P82">
             <v>34968000</v>
           </cell>
@@ -2153,9 +2152,6 @@
           </cell>
           <cell r="N83">
             <v>7.3251664840661077E-2</v>
-          </cell>
-          <cell r="O83">
-            <v>0</v>
           </cell>
           <cell r="P83">
             <v>14267424.404937617</v>
@@ -3195,7 +3191,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dell" refreshedDate="44589.575015046299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2428">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:H7" sheet="Invent equipos, precios mantto"/>
+    <worksheetSource ref="A2:H9" sheet="Invent equipos, precios mantto"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="SEDE" numFmtId="0">
@@ -3253,7 +3249,7 @@
     <cacheField name="ACTIVO FIJO" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1930" maxValue="2107452"/>
     </cacheField>
-    <cacheField name="VAALOR MANTTO 2022 " numFmtId="166">
+    <cacheField name="VAALOR MANTTO 2022 " numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="9506" maxValue="152093"/>
     </cacheField>
   </cacheFields>
@@ -27711,7 +27707,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de VAALOR MANTTO 2022 " fld="7" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Suma de VAALOR MANTTO 2022 " fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
     <format dxfId="9">
@@ -28027,12 +28023,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28190,7 +28186,7 @@
         <v>38023</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -28198,36 +28194,88 @@
         <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="7">
+        <v>234560000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H9" s="7">
         <v>38023</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="G9" s="11" t="s">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="G11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="12">
-        <f>SUM(H3:H8)</f>
-        <v>190115</v>
+      <c r="H11" s="12">
+        <f>SUM(H3:H10)</f>
+        <v>234850115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28541,10 +28589,10 @@
   <dimension ref="A1:BA75"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28600,91 +28648,91 @@
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="164" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="163" t="s">
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="169" t="s">
+      <c r="J3" s="159"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="163" t="s">
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="164" t="s">
+      <c r="P3" s="159"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="166" t="s">
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="167"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="169" t="s">
+      <c r="V3" s="161"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="163" t="s">
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="164" t="s">
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="163" t="s">
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="159"/>
+      <c r="AG3" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="169" t="s">
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="171"/>
+      <c r="AJ3" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="163" t="s">
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="164" t="s">
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="171"/>
+      <c r="AP3" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="166" t="s">
+      <c r="AQ3" s="159"/>
+      <c r="AR3" s="159"/>
+      <c r="AS3" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="169" t="s">
+      <c r="AT3" s="161"/>
+      <c r="AU3" s="162"/>
+      <c r="AV3" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="170" t="s">
+      <c r="AW3" s="163"/>
+      <c r="AX3" s="163"/>
+      <c r="AY3" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="171"/>
-      <c r="BA3" s="172"/>
+      <c r="AZ3" s="165"/>
+      <c r="BA3" s="166"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -28842,7 +28890,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="167" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -28896,8 +28944,7 @@
         <v>0.53604803823901481</v>
       </c>
       <c r="O5" s="26">
-        <f>'[1]Budget ZONA NORTE'!O80</f>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="P5" s="27">
         <f>'[1]Budget ZONA NORTE'!P80</f>
@@ -29053,7 +29100,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="160"/>
+      <c r="A6" s="168"/>
       <c r="B6" s="37" t="s">
         <v>100</v>
       </c>
@@ -29105,8 +29152,7 @@
         <v>0.15326882988051116</v>
       </c>
       <c r="O6" s="38">
-        <f>'[1]Budget ZONA NORTE'!O81</f>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="P6" s="39">
         <f>'[1]Budget ZONA NORTE'!P81</f>
@@ -29262,7 +29308,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="160"/>
+      <c r="A7" s="168"/>
       <c r="B7" s="37" t="s">
         <v>101</v>
       </c>
@@ -29314,8 +29360,7 @@
         <v>0.54504135215335836</v>
       </c>
       <c r="O7" s="38">
-        <f>'[1]Budget ZONA NORTE'!O82</f>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="P7" s="39">
         <f>'[1]Budget ZONA NORTE'!P82</f>
@@ -29471,7 +29516,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
+      <c r="A8" s="168"/>
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
@@ -29523,8 +29568,7 @@
         <v>7.3251664840661077E-2</v>
       </c>
       <c r="O8" s="38">
-        <f>'[1]Budget ZONA NORTE'!O83</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="P8" s="39">
         <f>'[1]Budget ZONA NORTE'!P83</f>
@@ -29680,7 +29724,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
@@ -29889,7 +29933,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="167" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -30100,7 +30144,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="160"/>
+      <c r="A11" s="168"/>
       <c r="B11" s="37" t="s">
         <v>100</v>
       </c>
@@ -30309,7 +30353,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
@@ -30518,7 +30562,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="160"/>
+      <c r="A13" s="168"/>
       <c r="B13" s="37" t="s">
         <v>102</v>
       </c>
@@ -30727,7 +30771,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="161"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="85" t="s">
         <v>105</v>
       </c>
@@ -30937,7 +30981,7 @@
     </row>
     <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="167" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -30993,7 +31037,7 @@
       </c>
       <c r="O16" s="98">
         <f>O5+O10</f>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="P16" s="99">
         <f>P5+P10</f>
@@ -31001,7 +31045,7 @@
       </c>
       <c r="Q16" s="100">
         <f>+O16/P16</f>
-        <v>0</v>
+        <v>5.6931724383451403E-5</v>
       </c>
       <c r="R16" s="107">
         <f>R5+R10</f>
@@ -31149,7 +31193,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="160"/>
+      <c r="A17" s="168"/>
       <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
@@ -31203,7 +31247,7 @@
       </c>
       <c r="O17" s="111">
         <f t="shared" ref="O17:P20" si="10">O6+O11</f>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="P17" s="112">
         <f t="shared" si="10"/>
@@ -31211,7 +31255,7 @@
       </c>
       <c r="Q17" s="113">
         <f t="shared" ref="Q17:Q20" si="11">+O17/P17</f>
-        <v>0</v>
+        <v>8.1060265056633241E-6</v>
       </c>
       <c r="R17" s="120">
         <f t="shared" ref="R17:S20" si="12">R6+R11</f>
@@ -31359,7 +31403,7 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="160"/>
+      <c r="A18" s="168"/>
       <c r="B18" s="37" t="s">
         <v>101</v>
       </c>
@@ -31413,7 +31457,7 @@
       </c>
       <c r="O18" s="111">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="P18" s="112">
         <f t="shared" si="10"/>
@@ -31421,7 +31465,7 @@
       </c>
       <c r="Q18" s="113">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5.1666120485009308E-5</v>
       </c>
       <c r="R18" s="120">
         <f t="shared" si="12"/>
@@ -31569,7 +31613,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="160"/>
+      <c r="A19" s="168"/>
       <c r="B19" s="37" t="s">
         <v>102</v>
       </c>
@@ -31623,7 +31667,7 @@
       </c>
       <c r="O19" s="111">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="P19" s="112">
         <f t="shared" si="10"/>
@@ -31631,7 +31675,7 @@
       </c>
       <c r="Q19" s="113">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8.0844379181862928E-6</v>
       </c>
       <c r="R19" s="120">
         <f t="shared" si="12"/>
@@ -31779,7 +31823,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="161"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="85" t="s">
         <v>107</v>
       </c>
@@ -32089,10 +32133,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="162" t="s">
+      <c r="B38" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="162"/>
+      <c r="C38" s="173"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="139" t="s">
@@ -32124,10 +32168,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="162" t="s">
+      <c r="B44" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="162"/>
+      <c r="C44" s="173"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32559,6 +32603,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32575,12 +32625,6 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">

--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
   <si>
     <t>SEDE</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>AA</t>
+  </si>
+  <si>
+    <t>PROVISIONAR MARZO</t>
   </si>
 </sst>
 </file>
@@ -1054,12 +1057,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,7 +1495,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,29 +1537,13 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
@@ -2453,9 +2459,6 @@
           <cell r="N95">
             <v>0.81516321113161172</v>
           </cell>
-          <cell r="O95">
-            <v>0</v>
-          </cell>
           <cell r="P95">
             <v>17739149</v>
           </cell>
@@ -2605,9 +2608,6 @@
           <cell r="N96">
             <v>0.24409613444485742</v>
           </cell>
-          <cell r="O96">
-            <v>0</v>
-          </cell>
           <cell r="P96">
             <v>199210448</v>
           </cell>
@@ -2757,9 +2757,6 @@
           <cell r="N97">
             <v>0.46944382518565703</v>
           </cell>
-          <cell r="O97">
-            <v>0</v>
-          </cell>
           <cell r="P97">
             <v>27587500</v>
           </cell>
@@ -2909,9 +2906,6 @@
           <cell r="N98">
             <v>0.80975580474346587</v>
           </cell>
-          <cell r="O98">
-            <v>0</v>
-          </cell>
           <cell r="P98">
             <v>40652905.801470771</v>
           </cell>
@@ -3057,9 +3051,6 @@
           </cell>
           <cell r="N99">
             <v>0.41066004548986917</v>
-          </cell>
-          <cell r="O99">
-            <v>0</v>
           </cell>
           <cell r="P99">
             <v>285190002.80147082</v>
@@ -28023,12 +28014,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28276,6 +28267,14 @@
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="174">
+        <v>43334403</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28592,7 +28591,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28648,91 +28647,91 @@
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="159" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="170" t="s">
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="163" t="s">
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="170" t="s">
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="159" t="s">
+      <c r="P3" s="164"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="160" t="s">
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="161"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="163" t="s">
+      <c r="V3" s="167"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="170" t="s">
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="159" t="s">
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="170" t="s">
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="163" t="s">
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="163"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="170" t="s">
+      <c r="AK3" s="169"/>
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="171"/>
-      <c r="AP3" s="159" t="s">
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="160" t="s">
+      <c r="AQ3" s="164"/>
+      <c r="AR3" s="164"/>
+      <c r="AS3" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="161"/>
-      <c r="AU3" s="162"/>
-      <c r="AV3" s="163" t="s">
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="163"/>
-      <c r="AX3" s="163"/>
-      <c r="AY3" s="164" t="s">
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="165"/>
-      <c r="BA3" s="166"/>
+      <c r="AZ3" s="171"/>
+      <c r="BA3" s="172"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -28890,7 +28889,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="159" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -29100,7 +29099,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="37" t="s">
         <v>100</v>
       </c>
@@ -29308,7 +29307,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="37" t="s">
         <v>101</v>
       </c>
@@ -29516,7 +29515,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="168"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
@@ -29724,7 +29723,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="169"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
@@ -29933,7 +29932,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="159" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -29987,8 +29986,7 @@
         <v>0.81516321113161172</v>
       </c>
       <c r="O10" s="63">
-        <f>'[1]Budget ZONA CENTRO'!O95</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="P10" s="64">
         <f>'[1]Budget ZONA CENTRO'!P95</f>
@@ -30144,7 +30142,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="168"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="37" t="s">
         <v>100</v>
       </c>
@@ -30196,8 +30194,7 @@
         <v>0.24409613444485742</v>
       </c>
       <c r="O11" s="74">
-        <f>'[1]Budget ZONA CENTRO'!O96</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="P11" s="75">
         <f>'[1]Budget ZONA CENTRO'!P96</f>
@@ -30353,7 +30350,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
@@ -30405,8 +30402,7 @@
         <v>0.46944382518565703</v>
       </c>
       <c r="O12" s="74">
-        <f>'[1]Budget ZONA CENTRO'!O97</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P12" s="75">
         <f>'[1]Budget ZONA CENTRO'!P97</f>
@@ -30562,7 +30558,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="168"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="37" t="s">
         <v>102</v>
       </c>
@@ -30614,8 +30610,7 @@
         <v>0.80975580474346587</v>
       </c>
       <c r="O13" s="74">
-        <f>'[1]Budget ZONA CENTRO'!O98</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P13" s="75">
         <f>'[1]Budget ZONA CENTRO'!P98</f>
@@ -30771,7 +30766,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="172"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="85" t="s">
         <v>105</v>
       </c>
@@ -30823,8 +30818,7 @@
         <v>0.41066004548986917</v>
       </c>
       <c r="O14" s="86">
-        <f>'[1]Budget ZONA CENTRO'!O99</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P14" s="87">
         <f>'[1]Budget ZONA CENTRO'!P99</f>
@@ -30981,7 +30975,7 @@
     </row>
     <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="159" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -31037,7 +31031,7 @@
       </c>
       <c r="O16" s="98">
         <f>O5+O10</f>
-        <v>3232</v>
+        <v>3353</v>
       </c>
       <c r="P16" s="99">
         <f>P5+P10</f>
@@ -31045,7 +31039,7 @@
       </c>
       <c r="Q16" s="100">
         <f>+O16/P16</f>
-        <v>5.6931724383451403E-5</v>
+        <v>5.9063141045084331E-5</v>
       </c>
       <c r="R16" s="107">
         <f>R5+R10</f>
@@ -31193,7 +31187,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
@@ -31247,7 +31241,7 @@
       </c>
       <c r="O17" s="111">
         <f t="shared" ref="O17:P20" si="10">O6+O11</f>
-        <v>3232</v>
+        <v>3353</v>
       </c>
       <c r="P17" s="112">
         <f t="shared" si="10"/>
@@ -31255,7 +31249,7 @@
       </c>
       <c r="Q17" s="113">
         <f t="shared" ref="Q17:Q20" si="11">+O17/P17</f>
-        <v>8.1060265056633241E-6</v>
+        <v>8.4095008890746057E-6</v>
       </c>
       <c r="R17" s="120">
         <f t="shared" ref="R17:S20" si="12">R6+R11</f>
@@ -31403,7 +31397,7 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="168"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="37" t="s">
         <v>101</v>
       </c>
@@ -31457,7 +31451,7 @@
       </c>
       <c r="O18" s="111">
         <f t="shared" si="10"/>
-        <v>3232</v>
+        <v>3244</v>
       </c>
       <c r="P18" s="112">
         <f t="shared" si="10"/>
@@ -31465,7 +31459,7 @@
       </c>
       <c r="Q18" s="113">
         <f t="shared" si="11"/>
-        <v>5.1666120485009308E-5</v>
+        <v>5.1857950140275433E-5</v>
       </c>
       <c r="R18" s="120">
         <f t="shared" si="12"/>
@@ -31613,7 +31607,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="168"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="37" t="s">
         <v>102</v>
       </c>
@@ -31667,7 +31661,7 @@
       </c>
       <c r="O19" s="111">
         <f t="shared" si="10"/>
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="P19" s="112">
         <f t="shared" si="10"/>
@@ -31675,7 +31669,7 @@
       </c>
       <c r="Q19" s="113">
         <f t="shared" si="11"/>
-        <v>8.0844379181862928E-6</v>
+        <v>8.3029362402994354E-6</v>
       </c>
       <c r="R19" s="120">
         <f t="shared" si="12"/>
@@ -31823,7 +31817,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="172"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="85" t="s">
         <v>107</v>
       </c>
@@ -31877,7 +31871,7 @@
       </c>
       <c r="O20" s="124">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P20" s="125">
         <f t="shared" si="10"/>
@@ -31885,7 +31879,7 @@
       </c>
       <c r="Q20" s="52">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.094382362326267E-8</v>
       </c>
       <c r="R20" s="126">
         <f t="shared" si="12"/>
@@ -32133,10 +32127,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="173"/>
+      <c r="C38" s="162"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="139" t="s">
@@ -32168,10 +32162,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="173" t="s">
+      <c r="B44" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="173"/>
+      <c r="C44" s="162"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32603,12 +32597,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32625,6 +32613,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">

--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="148">
   <si>
     <t>SEDE</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>PROVISIONAR MARZO</t>
+  </si>
+  <si>
+    <t>PROVISIONAR abril</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,31 +1492,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,10 +1523,28 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="3" builtinId="4"/>
@@ -28014,12 +28018,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28036,16 +28040,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -28272,8 +28276,16 @@
       <c r="D14" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="174">
+      <c r="E14" s="157">
         <v>43334403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="157">
+        <v>100000000</v>
       </c>
     </row>
   </sheetData>
@@ -28647,91 +28659,91 @@
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="164" t="s">
+      <c r="D3" s="160"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="163" t="s">
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="169" t="s">
+      <c r="J3" s="160"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="163" t="s">
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="164" t="s">
+      <c r="P3" s="160"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="164"/>
-      <c r="T3" s="164"/>
-      <c r="U3" s="166" t="s">
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="167"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="169" t="s">
+      <c r="V3" s="162"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="163" t="s">
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="164" t="s">
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="163" t="s">
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="169" t="s">
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="163" t="s">
+      <c r="AK3" s="164"/>
+      <c r="AL3" s="164"/>
+      <c r="AM3" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="165"/>
-      <c r="AP3" s="164" t="s">
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="166" t="s">
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="167"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="169" t="s">
+      <c r="AT3" s="162"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="170" t="s">
+      <c r="AW3" s="164"/>
+      <c r="AX3" s="164"/>
+      <c r="AY3" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="171"/>
-      <c r="BA3" s="172"/>
+      <c r="AZ3" s="166"/>
+      <c r="BA3" s="167"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -28889,7 +28901,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="168" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -29099,7 +29111,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="160"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="37" t="s">
         <v>100</v>
       </c>
@@ -29307,7 +29319,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="160"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="37" t="s">
         <v>101</v>
       </c>
@@ -29515,7 +29527,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
@@ -29723,7 +29735,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173"/>
+      <c r="A9" s="170"/>
       <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
@@ -29932,7 +29944,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="159" t="s">
+      <c r="A10" s="168" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -30142,7 +30154,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="160"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="37" t="s">
         <v>100</v>
       </c>
@@ -30350,7 +30362,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="160"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
@@ -30558,7 +30570,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="160"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="37" t="s">
         <v>102</v>
       </c>
@@ -30766,7 +30778,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="161"/>
+      <c r="A14" s="173"/>
       <c r="B14" s="85" t="s">
         <v>105</v>
       </c>
@@ -30975,7 +30987,7 @@
     </row>
     <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="168" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -31187,7 +31199,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="160"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
@@ -31397,7 +31409,7 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="160"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="37" t="s">
         <v>101</v>
       </c>
@@ -31607,7 +31619,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="160"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="37" t="s">
         <v>102</v>
       </c>
@@ -31817,7 +31829,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="161"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="85" t="s">
         <v>107</v>
       </c>
@@ -32127,10 +32139,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="162" t="s">
+      <c r="B38" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="162"/>
+      <c r="C38" s="174"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="139" t="s">
@@ -32162,10 +32174,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="162" t="s">
+      <c r="B44" s="174" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="162"/>
+      <c r="C44" s="174"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32597,6 +32609,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32613,12 +32631,6 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">

--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
   <si>
     <t>SEDE</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>AA</t>
+  </si>
+  <si>
+    <t>PROVISION ABRIL</t>
+  </si>
+  <si>
+    <t>PROVISION MAYO</t>
   </si>
 </sst>
 </file>
@@ -1054,12 +1060,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1491,7 +1498,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,29 +1540,16 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
@@ -28023,12 +28035,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28276,6 +28288,22 @@
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="174">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="174">
+        <v>70000000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28592,7 +28620,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28648,91 +28676,91 @@
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="159" t="s">
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="170" t="s">
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="163" t="s">
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="170" t="s">
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="159" t="s">
+      <c r="P3" s="164"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="160" t="s">
+      <c r="S3" s="164"/>
+      <c r="T3" s="164"/>
+      <c r="U3" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="161"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="163" t="s">
+      <c r="V3" s="167"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="170" t="s">
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="159" t="s">
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="170" t="s">
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="163" t="s">
+      <c r="AH3" s="164"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="163"/>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="170" t="s">
+      <c r="AK3" s="169"/>
+      <c r="AL3" s="169"/>
+      <c r="AM3" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="159"/>
-      <c r="AO3" s="171"/>
-      <c r="AP3" s="159" t="s">
+      <c r="AN3" s="164"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="159"/>
-      <c r="AR3" s="159"/>
-      <c r="AS3" s="160" t="s">
+      <c r="AQ3" s="164"/>
+      <c r="AR3" s="164"/>
+      <c r="AS3" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="161"/>
-      <c r="AU3" s="162"/>
-      <c r="AV3" s="163" t="s">
+      <c r="AT3" s="167"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="163"/>
-      <c r="AX3" s="163"/>
-      <c r="AY3" s="164" t="s">
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="165"/>
-      <c r="BA3" s="166"/>
+      <c r="AZ3" s="171"/>
+      <c r="BA3" s="172"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -28890,7 +28918,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="159" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -29100,7 +29128,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="168"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="37" t="s">
         <v>100</v>
       </c>
@@ -29308,7 +29336,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="168"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="37" t="s">
         <v>101</v>
       </c>
@@ -29516,7 +29544,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="168"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
@@ -29724,7 +29752,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="169"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
@@ -29933,7 +29961,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="159" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -30144,7 +30172,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="168"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="37" t="s">
         <v>100</v>
       </c>
@@ -30353,7 +30381,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
@@ -30562,7 +30590,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="168"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="37" t="s">
         <v>102</v>
       </c>
@@ -30771,7 +30799,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="172"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="85" t="s">
         <v>105</v>
       </c>
@@ -30981,7 +31009,7 @@
     </row>
     <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="159" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -31193,7 +31221,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="168"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
@@ -31403,7 +31431,7 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="168"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="37" t="s">
         <v>101</v>
       </c>
@@ -31613,7 +31641,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="168"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="37" t="s">
         <v>102</v>
       </c>
@@ -31823,7 +31851,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="172"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="85" t="s">
         <v>107</v>
       </c>
@@ -32044,6 +32072,14 @@
         <v>1.1298293783354714</v>
       </c>
       <c r="AZ21" s="135"/>
+    </row>
+    <row r="22" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="176" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="177">
+        <v>600000</v>
+      </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
@@ -32133,10 +32169,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="173"/>
+      <c r="C38" s="162"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="139" t="s">
@@ -32168,10 +32204,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="173" t="s">
+      <c r="B44" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="173"/>
+      <c r="C44" s="162"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32603,12 +32639,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32625,6 +32655,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">

--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -1066,7 +1066,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,7 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,13 +1492,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,28 +1541,9 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="3" builtinId="4"/>
@@ -28018,12 +28017,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28073,7 +28072,7 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -28260,31 +28259,27 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f>SUM(H3:H10)</f>
         <v>234850115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="156">
+        <v>43334403</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="157">
-        <v>43334403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="175" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="157">
+      <c r="E13" s="156">
         <v>100000000</v>
       </c>
     </row>
@@ -28324,7 +28319,7 @@
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>152093</v>
       </c>
     </row>
@@ -28332,7 +28327,7 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>3357385</v>
       </c>
     </row>
@@ -28340,7 +28335,7 @@
       <c r="A6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2954388</v>
       </c>
     </row>
@@ -28348,7 +28343,7 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>3221394</v>
       </c>
     </row>
@@ -28356,7 +28351,7 @@
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>4607048</v>
       </c>
     </row>
@@ -28364,7 +28359,7 @@
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>1828856</v>
       </c>
     </row>
@@ -28372,7 +28367,7 @@
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2062027</v>
       </c>
     </row>
@@ -28380,7 +28375,7 @@
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>3307164</v>
       </c>
     </row>
@@ -28388,7 +28383,7 @@
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>5312033</v>
       </c>
     </row>
@@ -28396,7 +28391,7 @@
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>3788956</v>
       </c>
     </row>
@@ -28404,7 +28399,7 @@
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>998103</v>
       </c>
     </row>
@@ -28412,7 +28407,7 @@
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>3599368</v>
       </c>
     </row>
@@ -28420,7 +28415,7 @@
       <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>2940903</v>
       </c>
     </row>
@@ -28428,7 +28423,7 @@
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>742085</v>
       </c>
     </row>
@@ -28436,7 +28431,7 @@
       <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>1979733</v>
       </c>
     </row>
@@ -28444,7 +28439,7 @@
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>2706607</v>
       </c>
     </row>
@@ -28452,7 +28447,7 @@
       <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>2301134</v>
       </c>
     </row>
@@ -28460,7 +28455,7 @@
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>2532583</v>
       </c>
     </row>
@@ -28468,7 +28463,7 @@
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2847756</v>
       </c>
     </row>
@@ -28476,7 +28471,7 @@
       <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>2502705</v>
       </c>
     </row>
@@ -28484,7 +28479,7 @@
       <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>1882139</v>
       </c>
     </row>
@@ -28492,7 +28487,7 @@
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>2292819</v>
       </c>
     </row>
@@ -28500,7 +28495,7 @@
       <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>3220398</v>
       </c>
     </row>
@@ -28508,7 +28503,7 @@
       <c r="A27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>2611832</v>
       </c>
     </row>
@@ -28516,7 +28511,7 @@
       <c r="A28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>2212731</v>
       </c>
     </row>
@@ -28524,7 +28519,7 @@
       <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>2462202</v>
       </c>
     </row>
@@ -28532,7 +28527,7 @@
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>3056273</v>
       </c>
     </row>
@@ -28540,7 +28535,7 @@
       <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>2036384</v>
       </c>
     </row>
@@ -28548,13 +28543,13 @@
       <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>3477605</v>
       </c>
     </row>
@@ -28562,7 +28557,7 @@
       <c r="A34" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>3595782</v>
       </c>
     </row>
@@ -28570,7 +28565,7 @@
       <c r="A35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>2135877</v>
       </c>
     </row>
@@ -28578,7 +28573,7 @@
       <c r="A36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>38023</v>
       </c>
     </row>
@@ -28586,7 +28581,7 @@
       <c r="A37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>82764386</v>
       </c>
     </row>
@@ -28652,3404 +28647,3404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="F1" s="15">
+      <c r="F1" s="14">
         <f>G5-F5</f>
         <v>9770269.2199999988</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="160" t="s">
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="171" t="s">
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="160"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="164" t="s">
+      <c r="J3" s="165"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="171" t="s">
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="160"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="160" t="s">
+      <c r="P3" s="165"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="160"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="161" t="s">
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="162"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="164" t="s">
+      <c r="V3" s="168"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="171" t="s">
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="160" t="s">
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="171" t="s">
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="164" t="s">
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="171" t="s">
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="160" t="s">
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="160"/>
-      <c r="AR3" s="160"/>
-      <c r="AS3" s="161" t="s">
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="162"/>
-      <c r="AU3" s="163"/>
-      <c r="AV3" s="164" t="s">
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="169"/>
+      <c r="AV3" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="164"/>
-      <c r="AY3" s="165" t="s">
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="166"/>
-      <c r="BA3" s="167"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="173"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="U4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Y4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AA4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AE4" s="17" t="s">
+      <c r="AE4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AG4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AH4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AJ4" s="20" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AK4" s="21" t="s">
+      <c r="AK4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="AL4" s="20" t="s">
+      <c r="AL4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AM4" s="16" t="s">
+      <c r="AM4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AN4" s="17" t="s">
+      <c r="AN4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AO4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AP4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AQ4" s="17" t="s">
+      <c r="AQ4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AR4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AS4" s="16" t="s">
+      <c r="AS4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AT4" s="17" t="s">
+      <c r="AT4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AU4" s="18" t="s">
+      <c r="AU4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AV4" s="20" t="s">
+      <c r="AV4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AW4" s="21" t="s">
+      <c r="AW4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AX4" s="20" t="s">
+      <c r="AX4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AY4" s="22" t="s">
+      <c r="AY4" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="AZ4" s="23" t="s">
+      <c r="AZ4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="BA4" s="24" t="s">
+      <c r="BA4" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <f>'[1]Budget ZONA NORTE'!C80</f>
         <v>9584270</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <f>'[1]Budget ZONA NORTE'!D80</f>
         <v>12302674.560000001</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <f>'[1]Budget ZONA NORTE'!E80</f>
         <v>0.77903954569046163</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <f>'[1]Budget ZONA NORTE'!F80</f>
         <v>29372226</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <f>'[1]Budget ZONA NORTE'!G80</f>
         <v>39142495.219999999</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <f>'[1]Budget ZONA NORTE'!H80</f>
         <v>0.75039227404675402</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>121</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="26">
         <f>'[1]Budget ZONA NORTE'!J80</f>
         <v>21228346.809999999</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <f>'[1]Budget ZONA NORTE'!K80</f>
         <v>0</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <f>'[1]Budget ZONA NORTE'!L80</f>
         <v>38956496</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="31">
         <f>'[1]Budget ZONA NORTE'!M80</f>
         <v>72673516.590000004</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="32">
         <f>'[1]Budget ZONA NORTE'!N80</f>
         <v>0.53604803823901481</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <v>3232</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="26">
         <f>'[1]Budget ZONA NORTE'!P80</f>
         <v>39030605.210000001</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <f>'[1]Budget ZONA NORTE'!Q80</f>
         <v>0</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="28">
         <f>'[1]Budget ZONA NORTE'!R80</f>
         <v>0</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="26">
         <f>'[1]Budget ZONA NORTE'!S80</f>
         <v>46446380.990000002</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="29">
         <f>'[1]Budget ZONA NORTE'!T80</f>
         <v>0</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <f>'[1]Budget ZONA NORTE'!U80</f>
         <v>0</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="26">
         <f>'[1]Budget ZONA NORTE'!V80</f>
         <v>17034271.829999998</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="27">
         <f>'[1]Budget ZONA NORTE'!W80</f>
         <v>0</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="30">
         <f>'[1]Budget ZONA NORTE'!X80</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="31">
         <f>'[1]Budget ZONA NORTE'!Y80</f>
         <v>102511258.03</v>
       </c>
-      <c r="Z5" s="33">
+      <c r="Z5" s="32">
         <f>'[1]Budget ZONA NORTE'!Z80</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="25">
         <f>'[1]Budget ZONA NORTE'!AA80</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="26">
         <f>'[1]Budget ZONA NORTE'!AB80</f>
         <v>16254360.560000001</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="27">
         <f>'[1]Budget ZONA NORTE'!AC80</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="28">
         <f>'[1]Budget ZONA NORTE'!AD80</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="26">
         <f>'[1]Budget ZONA NORTE'!AE80</f>
         <v>39891825.219999999</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="29">
         <f>'[1]Budget ZONA NORTE'!AF80</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="26">
+      <c r="AG5" s="25">
         <f>'[1]Budget ZONA NORTE'!AG80</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="27">
+      <c r="AH5" s="26">
         <f>'[1]Budget ZONA NORTE'!AH80</f>
         <v>24334912.719999999</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AI5" s="27">
         <f>'[1]Budget ZONA NORTE'!AI80</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="31">
+      <c r="AJ5" s="30">
         <f>'[1]Budget ZONA NORTE'!AJ80</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="32">
+      <c r="AK5" s="31">
         <f>'[1]Budget ZONA NORTE'!AK80</f>
         <v>80481098.5</v>
       </c>
-      <c r="AL5" s="33">
+      <c r="AL5" s="32">
         <f>'[1]Budget ZONA NORTE'!AL80</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="26">
+      <c r="AM5" s="25">
         <f>'[1]Budget ZONA NORTE'!AM80</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="AN5" s="26">
         <f>'[1]Budget ZONA NORTE'!AN80</f>
         <v>23965153.829999998</v>
       </c>
-      <c r="AO5" s="28">
+      <c r="AO5" s="27">
         <f>'[1]Budget ZONA NORTE'!AO80</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="29">
+      <c r="AP5" s="28">
         <f>'[1]Budget ZONA NORTE'!AP80</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="27">
+      <c r="AQ5" s="26">
         <f>'[1]Budget ZONA NORTE'!AQ80</f>
         <v>33108469.949999999</v>
       </c>
-      <c r="AR5" s="30">
+      <c r="AR5" s="29">
         <f>'[1]Budget ZONA NORTE'!AR80</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="26">
+      <c r="AS5" s="25">
         <f>'[1]Budget ZONA NORTE'!AS80</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="27">
+      <c r="AT5" s="26">
         <f>'[1]Budget ZONA NORTE'!AT80</f>
         <v>18279199.829999998</v>
       </c>
-      <c r="AU5" s="28">
+      <c r="AU5" s="27">
         <f>'[1]Budget ZONA NORTE'!AU80</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="31">
+      <c r="AV5" s="30">
         <f>'[1]Budget ZONA NORTE'!AV80</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="32">
+      <c r="AW5" s="31">
         <f>'[1]Budget ZONA NORTE'!AW80</f>
         <v>75352823.609999999</v>
       </c>
-      <c r="AX5" s="33">
+      <c r="AX5" s="32">
         <f>'[1]Budget ZONA NORTE'!AX80</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="34">
+      <c r="AY5" s="33">
         <f>'[1]Budget ZONA NORTE'!AY80</f>
         <v>38956496</v>
       </c>
-      <c r="AZ5" s="35">
+      <c r="AZ5" s="34">
         <f>'[1]Budget ZONA NORTE'!AZ80</f>
         <v>331018696.73000002</v>
       </c>
-      <c r="BA5" s="36">
+      <c r="BA5" s="35">
         <f>'[1]Budget ZONA NORTE'!BA80</f>
         <v>0.11768669378749747</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="169"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="161"/>
+      <c r="B6" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <f>'[1]Budget ZONA NORTE'!C81</f>
         <v>24773457</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <f>'[1]Budget ZONA NORTE'!D81</f>
         <v>23392912</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <f>'[1]Budget ZONA NORTE'!E81</f>
         <v>1.059015525728477</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <f>'[1]Budget ZONA NORTE'!F81</f>
         <v>27656504</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <f>'[1]Budget ZONA NORTE'!G81</f>
         <v>112794448</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <f>'[1]Budget ZONA NORTE'!H81</f>
         <v>0.24519384145574258</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="37">
         <v>212</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="38">
         <f>'[1]Budget ZONA NORTE'!J81</f>
         <v>205891072</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="39">
         <f>'[1]Budget ZONA NORTE'!K81</f>
         <v>0</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="42">
         <f>'[1]Budget ZONA NORTE'!L81</f>
         <v>52429961</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="43">
         <f>'[1]Budget ZONA NORTE'!M81</f>
         <v>342078432</v>
       </c>
-      <c r="N6" s="45">
+      <c r="N6" s="44">
         <f>'[1]Budget ZONA NORTE'!N81</f>
         <v>0.15326882988051116</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="37">
         <v>3232</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="38">
         <f>'[1]Budget ZONA NORTE'!P81</f>
         <v>199505248</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="39">
         <f>'[1]Budget ZONA NORTE'!Q81</f>
         <v>0</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="40">
         <f>'[1]Budget ZONA NORTE'!R81</f>
         <v>0</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="38">
         <f>'[1]Budget ZONA NORTE'!S81</f>
         <v>196312336</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="41">
         <f>'[1]Budget ZONA NORTE'!T81</f>
         <v>0</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6" s="37">
         <f>'[1]Budget ZONA NORTE'!U81</f>
         <v>0</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="38">
         <f>'[1]Budget ZONA NORTE'!V81</f>
         <v>123875360</v>
       </c>
-      <c r="W6" s="40">
+      <c r="W6" s="39">
         <f>'[1]Budget ZONA NORTE'!W81</f>
         <v>0</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="42">
         <f>'[1]Budget ZONA NORTE'!X81</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="43">
         <f>'[1]Budget ZONA NORTE'!Y81</f>
         <v>519692944</v>
       </c>
-      <c r="Z6" s="45">
+      <c r="Z6" s="44">
         <f>'[1]Budget ZONA NORTE'!Z81</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="38">
+      <c r="AA6" s="37">
         <f>'[1]Budget ZONA NORTE'!AA81</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="39">
+      <c r="AB6" s="38">
         <f>'[1]Budget ZONA NORTE'!AB81</f>
         <v>142530656</v>
       </c>
-      <c r="AC6" s="40">
+      <c r="AC6" s="39">
         <f>'[1]Budget ZONA NORTE'!AC81</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AD6" s="40">
         <f>'[1]Budget ZONA NORTE'!AD81</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="39">
+      <c r="AE6" s="38">
         <f>'[1]Budget ZONA NORTE'!AE81</f>
         <v>85058240</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="41">
         <f>'[1]Budget ZONA NORTE'!AF81</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="38">
+      <c r="AG6" s="37">
         <f>'[1]Budget ZONA NORTE'!AG81</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="39">
+      <c r="AH6" s="38">
         <f>'[1]Budget ZONA NORTE'!AH81</f>
         <v>21200000</v>
       </c>
-      <c r="AI6" s="40">
+      <c r="AI6" s="39">
         <f>'[1]Budget ZONA NORTE'!AI81</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="43">
+      <c r="AJ6" s="42">
         <f>'[1]Budget ZONA NORTE'!AJ81</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="44">
+      <c r="AK6" s="43">
         <f>'[1]Budget ZONA NORTE'!AK81</f>
         <v>248788896</v>
       </c>
-      <c r="AL6" s="45">
+      <c r="AL6" s="44">
         <f>'[1]Budget ZONA NORTE'!AL81</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="38">
+      <c r="AM6" s="37">
         <f>'[1]Budget ZONA NORTE'!AM81</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="39">
+      <c r="AN6" s="38">
         <f>'[1]Budget ZONA NORTE'!AN81</f>
         <v>21200000</v>
       </c>
-      <c r="AO6" s="40">
+      <c r="AO6" s="39">
         <f>'[1]Budget ZONA NORTE'!AO81</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="41">
+      <c r="AP6" s="40">
         <f>'[1]Budget ZONA NORTE'!AP81</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="39">
+      <c r="AQ6" s="38">
         <f>'[1]Budget ZONA NORTE'!AQ81</f>
         <v>21200000</v>
       </c>
-      <c r="AR6" s="42">
+      <c r="AR6" s="41">
         <f>'[1]Budget ZONA NORTE'!AR81</f>
         <v>0</v>
       </c>
-      <c r="AS6" s="38">
+      <c r="AS6" s="37">
         <f>'[1]Budget ZONA NORTE'!AS81</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="39">
+      <c r="AT6" s="38">
         <f>'[1]Budget ZONA NORTE'!AT81</f>
         <v>21200000</v>
       </c>
-      <c r="AU6" s="40">
+      <c r="AU6" s="39">
         <f>'[1]Budget ZONA NORTE'!AU81</f>
         <v>0</v>
       </c>
-      <c r="AV6" s="43">
+      <c r="AV6" s="42">
         <f>'[1]Budget ZONA NORTE'!AV81</f>
         <v>0</v>
       </c>
-      <c r="AW6" s="44">
+      <c r="AW6" s="43">
         <f>'[1]Budget ZONA NORTE'!AW81</f>
         <v>63600000</v>
       </c>
-      <c r="AX6" s="45">
+      <c r="AX6" s="44">
         <f>'[1]Budget ZONA NORTE'!AX81</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="46">
+      <c r="AY6" s="45">
         <f>'[1]Budget ZONA NORTE'!AY81</f>
         <v>52429961</v>
       </c>
-      <c r="AZ6" s="47">
+      <c r="AZ6" s="46">
         <f>'[1]Budget ZONA NORTE'!AZ81</f>
         <v>1174160272</v>
       </c>
-      <c r="BA6" s="48">
+      <c r="BA6" s="47">
         <f>'[1]Budget ZONA NORTE'!BA81</f>
         <v>4.465315532324534E-2</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="169"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="161"/>
+      <c r="B7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f>'[1]Budget ZONA NORTE'!C82</f>
         <v>24254075</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <f>'[1]Budget ZONA NORTE'!D82</f>
         <v>26580000</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <f>'[1]Budget ZONA NORTE'!E82</f>
         <v>0.91249341610233259</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <f>'[1]Budget ZONA NORTE'!F82</f>
         <v>24052395</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f>'[1]Budget ZONA NORTE'!G82</f>
         <v>30774000</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <f>'[1]Budget ZONA NORTE'!H82</f>
         <v>0.78158169233768771</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>323</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <f>'[1]Budget ZONA NORTE'!J82</f>
         <v>31275000</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="39">
         <f>'[1]Budget ZONA NORTE'!K82</f>
         <v>0</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <f>'[1]Budget ZONA NORTE'!L82</f>
         <v>48306470</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="43">
         <f>'[1]Budget ZONA NORTE'!M82</f>
         <v>88629000</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <f>'[1]Budget ZONA NORTE'!N82</f>
         <v>0.54504135215335836</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="37">
         <v>3232</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="38">
         <f>'[1]Budget ZONA NORTE'!P82</f>
         <v>34968000</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="39">
         <f>'[1]Budget ZONA NORTE'!Q82</f>
         <v>0</v>
       </c>
-      <c r="R7" s="41">
+      <c r="R7" s="40">
         <f>'[1]Budget ZONA NORTE'!R82</f>
         <v>0</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <f>'[1]Budget ZONA NORTE'!S82</f>
         <v>37861000</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="41">
         <f>'[1]Budget ZONA NORTE'!T82</f>
         <v>0</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="37">
         <f>'[1]Budget ZONA NORTE'!U82</f>
         <v>0</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="38">
         <f>'[1]Budget ZONA NORTE'!V82</f>
         <v>35081500</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="39">
         <f>'[1]Budget ZONA NORTE'!W82</f>
         <v>0</v>
       </c>
-      <c r="X7" s="43">
+      <c r="X7" s="42">
         <f>'[1]Budget ZONA NORTE'!X82</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="44">
+      <c r="Y7" s="43">
         <f>'[1]Budget ZONA NORTE'!Y82</f>
         <v>107910500</v>
       </c>
-      <c r="Z7" s="45">
+      <c r="Z7" s="44">
         <f>'[1]Budget ZONA NORTE'!Z82</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="37">
         <f>'[1]Budget ZONA NORTE'!AA82</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AB7" s="38">
         <f>'[1]Budget ZONA NORTE'!AB82</f>
         <v>37697500</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="39">
         <f>'[1]Budget ZONA NORTE'!AC82</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AD7" s="40">
         <f>'[1]Budget ZONA NORTE'!AD82</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="39">
+      <c r="AE7" s="38">
         <f>'[1]Budget ZONA NORTE'!AE82</f>
         <v>34356500</v>
       </c>
-      <c r="AF7" s="42">
+      <c r="AF7" s="41">
         <f>'[1]Budget ZONA NORTE'!AF82</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="38">
+      <c r="AG7" s="37">
         <f>'[1]Budget ZONA NORTE'!AG82</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="39">
+      <c r="AH7" s="38">
         <f>'[1]Budget ZONA NORTE'!AH82</f>
         <v>25712500</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AI7" s="39">
         <f>'[1]Budget ZONA NORTE'!AI82</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="43">
+      <c r="AJ7" s="42">
         <f>'[1]Budget ZONA NORTE'!AJ82</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="44">
+      <c r="AK7" s="43">
         <f>'[1]Budget ZONA NORTE'!AK82</f>
         <v>97766500</v>
       </c>
-      <c r="AL7" s="45">
+      <c r="AL7" s="44">
         <f>'[1]Budget ZONA NORTE'!AL82</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="38">
+      <c r="AM7" s="37">
         <f>'[1]Budget ZONA NORTE'!AM82</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="39">
+      <c r="AN7" s="38">
         <f>'[1]Budget ZONA NORTE'!AN82</f>
         <v>27045500</v>
       </c>
-      <c r="AO7" s="40">
+      <c r="AO7" s="39">
         <f>'[1]Budget ZONA NORTE'!AO82</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="41">
+      <c r="AP7" s="40">
         <f>'[1]Budget ZONA NORTE'!AP82</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="39">
+      <c r="AQ7" s="38">
         <f>'[1]Budget ZONA NORTE'!AQ82</f>
         <v>26391500</v>
       </c>
-      <c r="AR7" s="42">
+      <c r="AR7" s="41">
         <f>'[1]Budget ZONA NORTE'!AR82</f>
         <v>0</v>
       </c>
-      <c r="AS7" s="38">
+      <c r="AS7" s="37">
         <f>'[1]Budget ZONA NORTE'!AS82</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="39">
+      <c r="AT7" s="38">
         <f>'[1]Budget ZONA NORTE'!AT82</f>
         <v>30923000</v>
       </c>
-      <c r="AU7" s="40">
+      <c r="AU7" s="39">
         <f>'[1]Budget ZONA NORTE'!AU82</f>
         <v>0</v>
       </c>
-      <c r="AV7" s="43">
+      <c r="AV7" s="42">
         <f>'[1]Budget ZONA NORTE'!AV82</f>
         <v>0</v>
       </c>
-      <c r="AW7" s="44">
+      <c r="AW7" s="43">
         <f>'[1]Budget ZONA NORTE'!AW82</f>
         <v>84360000</v>
       </c>
-      <c r="AX7" s="45">
+      <c r="AX7" s="44">
         <f>'[1]Budget ZONA NORTE'!AX82</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="46">
+      <c r="AY7" s="45">
         <f>'[1]Budget ZONA NORTE'!AY82</f>
         <v>48306470</v>
       </c>
-      <c r="AZ7" s="47">
+      <c r="AZ7" s="46">
         <f>'[1]Budget ZONA NORTE'!AZ82</f>
         <v>378666000</v>
       </c>
-      <c r="BA7" s="48">
+      <c r="BA7" s="47">
         <f>'[1]Budget ZONA NORTE'!BA82</f>
         <v>0.12757012776430945</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="169"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="161"/>
+      <c r="B8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <f>'[1]Budget ZONA NORTE'!C83</f>
         <v>8655465</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <f>'[1]Budget ZONA NORTE'!D83</f>
         <v>100213.0978676923</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <f>'[1]Budget ZONA NORTE'!E83</f>
         <v>86.370596101394796</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <f>'[1]Budget ZONA NORTE'!F83</f>
         <v>3969295</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <f>'[1]Budget ZONA NORTE'!G83</f>
         <v>59551247.19573538</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <f>'[1]Budget ZONA NORTE'!H83</f>
         <v>6.6653431908043251E-2</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>34</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="38">
         <f>'[1]Budget ZONA NORTE'!J83</f>
         <v>112696294.90706992</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="39">
         <f>'[1]Budget ZONA NORTE'!K83</f>
         <v>0</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="42">
         <f>'[1]Budget ZONA NORTE'!L83</f>
         <v>12624760</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="43">
         <f>'[1]Budget ZONA NORTE'!M83</f>
         <v>172347755.20067298</v>
       </c>
-      <c r="N8" s="45">
+      <c r="N8" s="44">
         <f>'[1]Budget ZONA NORTE'!N83</f>
         <v>7.3251664840661077E-2</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="37">
         <v>444</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="38">
         <f>'[1]Budget ZONA NORTE'!P83</f>
         <v>14267424.404937617</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="39">
         <f>'[1]Budget ZONA NORTE'!Q83</f>
         <v>0</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="40">
         <f>'[1]Budget ZONA NORTE'!R83</f>
         <v>0</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="38">
         <f>'[1]Budget ZONA NORTE'!S83</f>
         <v>12072251.764937617</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="41">
         <f>'[1]Budget ZONA NORTE'!T83</f>
         <v>0</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="37">
         <f>'[1]Budget ZONA NORTE'!U83</f>
         <v>0</v>
       </c>
-      <c r="V8" s="39">
+      <c r="V8" s="38">
         <f>'[1]Budget ZONA NORTE'!V83</f>
         <v>21794859.830770958</v>
       </c>
-      <c r="W8" s="40">
+      <c r="W8" s="39">
         <f>'[1]Budget ZONA NORTE'!W83</f>
         <v>0</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="42">
         <f>'[1]Budget ZONA NORTE'!X83</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="44">
+      <c r="Y8" s="43">
         <f>'[1]Budget ZONA NORTE'!Y83</f>
         <v>48134536.000646189</v>
       </c>
-      <c r="Z8" s="45">
+      <c r="Z8" s="44">
         <f>'[1]Budget ZONA NORTE'!Z83</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="37">
         <f>'[1]Budget ZONA NORTE'!AA83</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="39">
+      <c r="AB8" s="38">
         <f>'[1]Budget ZONA NORTE'!AB83</f>
         <v>2149518.830770954</v>
       </c>
-      <c r="AC8" s="40">
+      <c r="AC8" s="39">
         <f>'[1]Budget ZONA NORTE'!AC83</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="40">
         <f>'[1]Budget ZONA NORTE'!AD83</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="AE8" s="38">
         <f>'[1]Budget ZONA NORTE'!AE83</f>
         <v>31066047.830770954</v>
       </c>
-      <c r="AF8" s="42">
+      <c r="AF8" s="41">
         <f>'[1]Budget ZONA NORTE'!AF83</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="38">
+      <c r="AG8" s="37">
         <f>'[1]Budget ZONA NORTE'!AG83</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="39">
+      <c r="AH8" s="38">
         <f>'[1]Budget ZONA NORTE'!AH83</f>
         <v>48010308.884937614</v>
       </c>
-      <c r="AI8" s="40">
+      <c r="AI8" s="39">
         <f>'[1]Budget ZONA NORTE'!AI83</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="43">
+      <c r="AJ8" s="42">
         <f>'[1]Budget ZONA NORTE'!AJ83</f>
         <v>0</v>
       </c>
-      <c r="AK8" s="44">
+      <c r="AK8" s="43">
         <f>'[1]Budget ZONA NORTE'!AK83</f>
         <v>81225875.546479523</v>
       </c>
-      <c r="AL8" s="45">
+      <c r="AL8" s="44">
         <f>'[1]Budget ZONA NORTE'!AL83</f>
         <v>0</v>
       </c>
-      <c r="AM8" s="38">
+      <c r="AM8" s="37">
         <f>'[1]Budget ZONA NORTE'!AM83</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="39">
+      <c r="AN8" s="38">
         <f>'[1]Budget ZONA NORTE'!AN83</f>
         <v>969151.76493762003</v>
       </c>
-      <c r="AO8" s="40">
+      <c r="AO8" s="39">
         <f>'[1]Budget ZONA NORTE'!AO83</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="41">
+      <c r="AP8" s="40">
         <f>'[1]Budget ZONA NORTE'!AP83</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="39">
+      <c r="AQ8" s="38">
         <f>'[1]Budget ZONA NORTE'!AQ83</f>
         <v>22891807.764937624</v>
       </c>
-      <c r="AR8" s="42">
+      <c r="AR8" s="41">
         <f>'[1]Budget ZONA NORTE'!AR83</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="38">
+      <c r="AS8" s="37">
         <f>'[1]Budget ZONA NORTE'!AS83</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="39">
+      <c r="AT8" s="38">
         <f>'[1]Budget ZONA NORTE'!AT83</f>
         <v>609295.6350355692</v>
       </c>
-      <c r="AU8" s="40">
+      <c r="AU8" s="39">
         <f>'[1]Budget ZONA NORTE'!AU83</f>
         <v>0</v>
       </c>
-      <c r="AV8" s="43">
+      <c r="AV8" s="42">
         <f>'[1]Budget ZONA NORTE'!AV83</f>
         <v>0</v>
       </c>
-      <c r="AW8" s="44">
+      <c r="AW8" s="43">
         <f>'[1]Budget ZONA NORTE'!AW83</f>
         <v>24470255.164910816</v>
       </c>
-      <c r="AX8" s="45">
+      <c r="AX8" s="44">
         <f>'[1]Budget ZONA NORTE'!AX83</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="46">
+      <c r="AY8" s="45">
         <f>'[1]Budget ZONA NORTE'!AY83</f>
         <v>12624760</v>
       </c>
-      <c r="AZ8" s="47">
+      <c r="AZ8" s="46">
         <f>'[1]Budget ZONA NORTE'!AZ83</f>
         <v>326178421.91270947</v>
       </c>
-      <c r="BA8" s="48">
+      <c r="BA8" s="47">
         <f>'[1]Budget ZONA NORTE'!BA83</f>
         <v>3.8705074130803742E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="170"/>
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="1:53" s="61" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="174"/>
+      <c r="B9" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="49">
         <f>'[1]Budget ZONA NORTE'!C84</f>
         <v>67267267</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="50">
         <f>'[1]Budget ZONA NORTE'!D84</f>
         <v>62375799.657867692</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="51">
         <f t="shared" ref="E9" si="0">+C9/D9</f>
         <v>1.0784193127617134</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="52">
         <f>'[1]Budget ZONA NORTE'!F84</f>
         <v>85050420</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="50">
         <f>'[1]Budget ZONA NORTE'!G84</f>
         <v>242262190.41573539</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="53">
         <f>'[1]Budget ZONA NORTE'!H84</f>
         <v>0.35106765877931156</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="49">
         <v>545</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="50">
         <f>'[1]Budget ZONA NORTE'!J84</f>
         <v>371090713.71706992</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="54">
         <f>'[1]Budget ZONA NORTE'!K84</f>
         <v>0</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="55">
         <f>'[1]Budget ZONA NORTE'!L84</f>
         <v>152317687</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="56">
         <f>'[1]Budget ZONA NORTE'!M84</f>
         <v>675728703.79067302</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="57">
         <f>'[1]Budget ZONA NORTE'!N84</f>
         <v>0.22541248602513844</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="49">
         <f>'[1]Budget ZONA NORTE'!O84</f>
         <v>0</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="50">
         <f>'[1]Budget ZONA NORTE'!P84</f>
         <v>287771277.61493754</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="54">
         <f>'[1]Budget ZONA NORTE'!Q84</f>
         <v>0</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="52">
         <f>'[1]Budget ZONA NORTE'!R84</f>
         <v>0</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="50">
         <f>'[1]Budget ZONA NORTE'!S84</f>
         <v>292691968.75493759</v>
       </c>
-      <c r="T9" s="54">
+      <c r="T9" s="53">
         <f>'[1]Budget ZONA NORTE'!T84</f>
         <v>0</v>
       </c>
-      <c r="U9" s="50">
+      <c r="U9" s="49">
         <f>'[1]Budget ZONA NORTE'!U84</f>
         <v>0</v>
       </c>
-      <c r="V9" s="51">
+      <c r="V9" s="50">
         <f>'[1]Budget ZONA NORTE'!V84</f>
         <v>197785991.66077095</v>
       </c>
-      <c r="W9" s="55">
+      <c r="W9" s="54">
         <f>'[1]Budget ZONA NORTE'!W84</f>
         <v>0</v>
       </c>
-      <c r="X9" s="56">
+      <c r="X9" s="55">
         <f>'[1]Budget ZONA NORTE'!X84</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="57">
+      <c r="Y9" s="56">
         <f>'[1]Budget ZONA NORTE'!Y84</f>
         <v>778249238.0306462</v>
       </c>
-      <c r="Z9" s="58">
+      <c r="Z9" s="57">
         <f>'[1]Budget ZONA NORTE'!Z84</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="50">
+      <c r="AA9" s="49">
         <f>'[1]Budget ZONA NORTE'!AA84</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="51">
+      <c r="AB9" s="50">
         <f>'[1]Budget ZONA NORTE'!AB84</f>
         <v>198632035.39077097</v>
       </c>
-      <c r="AC9" s="55">
+      <c r="AC9" s="54">
         <f>'[1]Budget ZONA NORTE'!AC84</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="53">
+      <c r="AD9" s="52">
         <f>'[1]Budget ZONA NORTE'!AD84</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="51">
+      <c r="AE9" s="50">
         <f>'[1]Budget ZONA NORTE'!AE84</f>
         <v>190372613.05077097</v>
       </c>
-      <c r="AF9" s="54">
+      <c r="AF9" s="53">
         <f>'[1]Budget ZONA NORTE'!AF84</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="50">
+      <c r="AG9" s="49">
         <f>'[1]Budget ZONA NORTE'!AG84</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="51">
+      <c r="AH9" s="50">
         <f>'[1]Budget ZONA NORTE'!AH84</f>
         <v>119257721.60493763</v>
       </c>
-      <c r="AI9" s="55">
+      <c r="AI9" s="54">
         <f>'[1]Budget ZONA NORTE'!AI84</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="56">
+      <c r="AJ9" s="55">
         <f>'[1]Budget ZONA NORTE'!AJ84</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="57">
+      <c r="AK9" s="56">
         <f>'[1]Budget ZONA NORTE'!AK84</f>
         <v>508262370.04647952</v>
       </c>
-      <c r="AL9" s="58">
+      <c r="AL9" s="57">
         <f>'[1]Budget ZONA NORTE'!AL84</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="50">
+      <c r="AM9" s="49">
         <f>'[1]Budget ZONA NORTE'!AM84</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="51">
+      <c r="AN9" s="50">
         <f>'[1]Budget ZONA NORTE'!AN84</f>
         <v>73179805.594937593</v>
       </c>
-      <c r="AO9" s="55">
+      <c r="AO9" s="54">
         <f>'[1]Budget ZONA NORTE'!AO84</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="53">
+      <c r="AP9" s="52">
         <f>'[1]Budget ZONA NORTE'!AP84</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="51">
+      <c r="AQ9" s="50">
         <f>'[1]Budget ZONA NORTE'!AQ84</f>
         <v>103591777.71493761</v>
       </c>
-      <c r="AR9" s="54">
+      <c r="AR9" s="53">
         <f>'[1]Budget ZONA NORTE'!AR84</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="50">
+      <c r="AS9" s="49">
         <f>'[1]Budget ZONA NORTE'!AS84</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="51">
+      <c r="AT9" s="50">
         <f>'[1]Budget ZONA NORTE'!AT84</f>
         <v>71011495.465035558</v>
       </c>
-      <c r="AU9" s="55">
+      <c r="AU9" s="54">
         <f>'[1]Budget ZONA NORTE'!AU84</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="56">
+      <c r="AV9" s="55">
         <f>'[1]Budget ZONA NORTE'!AV84</f>
         <v>0</v>
       </c>
-      <c r="AW9" s="57">
+      <c r="AW9" s="56">
         <f>'[1]Budget ZONA NORTE'!AW84</f>
         <v>247783078.77491084</v>
       </c>
-      <c r="AX9" s="58">
+      <c r="AX9" s="57">
         <f>'[1]Budget ZONA NORTE'!AX84</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="59">
+      <c r="AY9" s="58">
         <f>'[1]Budget ZONA NORTE'!AY84</f>
         <v>152317687</v>
       </c>
-      <c r="AZ9" s="60">
+      <c r="AZ9" s="59">
         <f>'[1]Budget ZONA NORTE'!AZ84</f>
         <v>2210023390.6427093</v>
       </c>
-      <c r="BA9" s="61">
+      <c r="BA9" s="60">
         <f>'[1]Budget ZONA NORTE'!BA84</f>
         <v>6.8921300853609355E-2</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <f>'[1]Budget ZONA CENTRO'!C95</f>
         <v>9586503</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <f>'[1]Budget ZONA CENTRO'!D95</f>
         <v>9469172</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="64">
         <f>'[1]Budget ZONA CENTRO'!E95</f>
         <v>1.0123908405085471</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="65">
         <f>'[1]Budget ZONA CENTRO'!F95</f>
         <v>27076558</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="63">
         <f>'[1]Budget ZONA CENTRO'!G95</f>
         <v>25403837</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="66">
         <f>'[1]Budget ZONA CENTRO'!H95</f>
         <v>1.0658452107057685</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="62">
         <v>343</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="63">
         <f>'[1]Budget ZONA CENTRO'!J95</f>
         <v>10103335</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="64">
         <f>'[1]Budget ZONA CENTRO'!K95</f>
         <v>0</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="67">
         <f>'[1]Budget ZONA CENTRO'!L95</f>
         <v>36663061</v>
       </c>
-      <c r="M10" s="69">
+      <c r="M10" s="68">
         <f>'[1]Budget ZONA CENTRO'!M95</f>
         <v>44976344</v>
       </c>
-      <c r="N10" s="70">
+      <c r="N10" s="69">
         <f>'[1]Budget ZONA CENTRO'!N95</f>
         <v>0.81516321113161172</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="62">
         <v>121</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="63">
         <f>'[1]Budget ZONA CENTRO'!P95</f>
         <v>17739149</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="Q10" s="64">
         <f>'[1]Budget ZONA CENTRO'!Q95</f>
         <v>0</v>
       </c>
-      <c r="R10" s="66">
+      <c r="R10" s="65">
         <f>'[1]Budget ZONA CENTRO'!R95</f>
         <v>0</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="63">
         <f>'[1]Budget ZONA CENTRO'!S95</f>
         <v>25982177</v>
       </c>
-      <c r="T10" s="67">
+      <c r="T10" s="66">
         <f>'[1]Budget ZONA CENTRO'!T95</f>
         <v>0</v>
       </c>
-      <c r="U10" s="63">
+      <c r="U10" s="62">
         <f>'[1]Budget ZONA CENTRO'!U95</f>
         <v>0</v>
       </c>
-      <c r="V10" s="64">
+      <c r="V10" s="63">
         <f>'[1]Budget ZONA CENTRO'!V95</f>
         <v>13374379</v>
       </c>
-      <c r="W10" s="65">
+      <c r="W10" s="64">
         <f>'[1]Budget ZONA CENTRO'!W95</f>
         <v>0</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="67">
         <f>'[1]Budget ZONA CENTRO'!X95</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="69">
+      <c r="Y10" s="68">
         <f>'[1]Budget ZONA CENTRO'!Y95</f>
         <v>57095705</v>
       </c>
-      <c r="Z10" s="70">
+      <c r="Z10" s="69">
         <f>'[1]Budget ZONA CENTRO'!Z95</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="63">
+      <c r="AA10" s="62">
         <f>'[1]Budget ZONA CENTRO'!AA95</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="64">
+      <c r="AB10" s="63">
         <f>'[1]Budget ZONA CENTRO'!AB95</f>
         <v>34294626</v>
       </c>
-      <c r="AC10" s="65">
+      <c r="AC10" s="64">
         <f>'[1]Budget ZONA CENTRO'!AC95</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="66">
+      <c r="AD10" s="65">
         <f>'[1]Budget ZONA CENTRO'!AD95</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="64">
+      <c r="AE10" s="63">
         <f>'[1]Budget ZONA CENTRO'!AE95</f>
         <v>25403837</v>
       </c>
-      <c r="AF10" s="67">
+      <c r="AF10" s="66">
         <f>'[1]Budget ZONA CENTRO'!AF95</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="63">
+      <c r="AG10" s="62">
         <f>'[1]Budget ZONA CENTRO'!AG95</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="64">
+      <c r="AH10" s="63">
         <f>'[1]Budget ZONA CENTRO'!AH95</f>
         <v>28283373</v>
       </c>
-      <c r="AI10" s="65">
+      <c r="AI10" s="64">
         <f>'[1]Budget ZONA CENTRO'!AI95</f>
         <v>0</v>
       </c>
-      <c r="AJ10" s="68">
+      <c r="AJ10" s="67">
         <f>'[1]Budget ZONA CENTRO'!AJ95</f>
         <v>0</v>
       </c>
-      <c r="AK10" s="69">
+      <c r="AK10" s="68">
         <f>'[1]Budget ZONA CENTRO'!AK95</f>
         <v>87981836</v>
       </c>
-      <c r="AL10" s="70">
+      <c r="AL10" s="69">
         <f>'[1]Budget ZONA CENTRO'!AL95</f>
         <v>0</v>
       </c>
-      <c r="AM10" s="63">
+      <c r="AM10" s="62">
         <f>'[1]Budget ZONA CENTRO'!AM95</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="64">
+      <c r="AN10" s="63">
         <f>'[1]Budget ZONA CENTRO'!AN95</f>
         <v>19682797</v>
       </c>
-      <c r="AO10" s="65">
+      <c r="AO10" s="64">
         <f>'[1]Budget ZONA CENTRO'!AO95</f>
         <v>0</v>
       </c>
-      <c r="AP10" s="66">
+      <c r="AP10" s="65">
         <f>'[1]Budget ZONA CENTRO'!AP95</f>
         <v>0</v>
       </c>
-      <c r="AQ10" s="64">
+      <c r="AQ10" s="63">
         <f>'[1]Budget ZONA CENTRO'!AQ95</f>
         <v>20120561</v>
       </c>
-      <c r="AR10" s="67">
+      <c r="AR10" s="66">
         <f>'[1]Budget ZONA CENTRO'!AR95</f>
         <v>0</v>
       </c>
-      <c r="AS10" s="63">
+      <c r="AS10" s="62">
         <f>'[1]Budget ZONA CENTRO'!AS95</f>
         <v>0</v>
       </c>
-      <c r="AT10" s="64">
+      <c r="AT10" s="63">
         <f>'[1]Budget ZONA CENTRO'!AT95</f>
         <v>13896843</v>
       </c>
-      <c r="AU10" s="65">
+      <c r="AU10" s="64">
         <f>'[1]Budget ZONA CENTRO'!AU95</f>
         <v>0</v>
       </c>
-      <c r="AV10" s="68">
+      <c r="AV10" s="67">
         <f>'[1]Budget ZONA CENTRO'!AV95</f>
         <v>0</v>
       </c>
-      <c r="AW10" s="69">
+      <c r="AW10" s="68">
         <f>'[1]Budget ZONA CENTRO'!AW95</f>
         <v>53700201</v>
       </c>
-      <c r="AX10" s="70">
+      <c r="AX10" s="69">
         <f>'[1]Budget ZONA CENTRO'!AX95</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="71">
+      <c r="AY10" s="70">
         <f>'[1]Budget ZONA CENTRO'!AY95</f>
         <v>36663061</v>
       </c>
-      <c r="AZ10" s="72">
+      <c r="AZ10" s="71">
         <f>'[1]Budget ZONA CENTRO'!AZ95</f>
         <v>243754086</v>
       </c>
-      <c r="BA10" s="73">
+      <c r="BA10" s="72">
         <f>'[1]Budget ZONA CENTRO'!BA95</f>
         <v>0.1504100366137042</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="169"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="161"/>
+      <c r="B11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="73">
         <f>'[1]Budget ZONA CENTRO'!C96</f>
         <v>12212464</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="74">
         <f>'[1]Budget ZONA CENTRO'!D96</f>
         <v>20900000</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="75">
         <f>'[1]Budget ZONA CENTRO'!E96</f>
         <v>0.58432842105263161</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="76">
         <f>'[1]Budget ZONA CENTRO'!F96</f>
         <v>68769389</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="74">
         <f>'[1]Budget ZONA CENTRO'!G96</f>
         <v>127053680</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="77">
         <f>'[1]Budget ZONA CENTRO'!H96</f>
         <v>0.54126247268083849</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="73">
         <v>545</v>
       </c>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <f>'[1]Budget ZONA CENTRO'!J96</f>
         <v>183808448</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="75">
         <f>'[1]Budget ZONA CENTRO'!K96</f>
         <v>0</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="78">
         <f>'[1]Budget ZONA CENTRO'!L96</f>
         <v>80981853</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="79">
         <f>'[1]Budget ZONA CENTRO'!M96</f>
         <v>331762128</v>
       </c>
-      <c r="N11" s="81">
+      <c r="N11" s="80">
         <f>'[1]Budget ZONA CENTRO'!N96</f>
         <v>0.24409613444485742</v>
       </c>
-      <c r="O11" s="74">
+      <c r="O11" s="73">
         <v>121</v>
       </c>
-      <c r="P11" s="75">
+      <c r="P11" s="74">
         <f>'[1]Budget ZONA CENTRO'!P96</f>
         <v>199210448</v>
       </c>
-      <c r="Q11" s="76">
+      <c r="Q11" s="75">
         <f>'[1]Budget ZONA CENTRO'!Q96</f>
         <v>0</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="76">
         <f>'[1]Budget ZONA CENTRO'!R96</f>
         <v>0</v>
       </c>
-      <c r="S11" s="75">
+      <c r="S11" s="74">
         <f>'[1]Budget ZONA CENTRO'!S96</f>
         <v>229942448</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T11" s="77">
         <f>'[1]Budget ZONA CENTRO'!T96</f>
         <v>0</v>
       </c>
-      <c r="U11" s="74">
+      <c r="U11" s="73">
         <f>'[1]Budget ZONA CENTRO'!U96</f>
         <v>0</v>
       </c>
-      <c r="V11" s="75">
+      <c r="V11" s="74">
         <f>'[1]Budget ZONA CENTRO'!V96</f>
         <v>188072064</v>
       </c>
-      <c r="W11" s="76">
+      <c r="W11" s="75">
         <f>'[1]Budget ZONA CENTRO'!W96</f>
         <v>0</v>
       </c>
-      <c r="X11" s="79">
+      <c r="X11" s="78">
         <f>'[1]Budget ZONA CENTRO'!X96</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="80">
+      <c r="Y11" s="79">
         <f>'[1]Budget ZONA CENTRO'!Y96</f>
         <v>617224960</v>
       </c>
-      <c r="Z11" s="81">
+      <c r="Z11" s="80">
         <f>'[1]Budget ZONA CENTRO'!Z96</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="73">
         <f>'[1]Budget ZONA CENTRO'!AA96</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="75">
+      <c r="AB11" s="74">
         <f>'[1]Budget ZONA CENTRO'!AB96</f>
         <v>195856800</v>
       </c>
-      <c r="AC11" s="76">
+      <c r="AC11" s="75">
         <f>'[1]Budget ZONA CENTRO'!AC96</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="77">
+      <c r="AD11" s="76">
         <f>'[1]Budget ZONA CENTRO'!AD96</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="75">
+      <c r="AE11" s="74">
         <f>'[1]Budget ZONA CENTRO'!AE96</f>
         <v>123975120</v>
       </c>
-      <c r="AF11" s="78">
+      <c r="AF11" s="77">
         <f>'[1]Budget ZONA CENTRO'!AF96</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="74">
+      <c r="AG11" s="73">
         <f>'[1]Budget ZONA CENTRO'!AG96</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="75">
+      <c r="AH11" s="74">
         <f>'[1]Budget ZONA CENTRO'!AH96</f>
         <v>77887824</v>
       </c>
-      <c r="AI11" s="76">
+      <c r="AI11" s="75">
         <f>'[1]Budget ZONA CENTRO'!AI96</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="79">
+      <c r="AJ11" s="78">
         <f>'[1]Budget ZONA CENTRO'!AJ96</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="80">
+      <c r="AK11" s="79">
         <f>'[1]Budget ZONA CENTRO'!AK96</f>
         <v>397719744</v>
       </c>
-      <c r="AL11" s="81">
+      <c r="AL11" s="80">
         <f>'[1]Budget ZONA CENTRO'!AL96</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="74">
+      <c r="AM11" s="73">
         <f>'[1]Budget ZONA CENTRO'!AM96</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="75">
+      <c r="AN11" s="74">
         <f>'[1]Budget ZONA CENTRO'!AN96</f>
         <v>69780000</v>
       </c>
-      <c r="AO11" s="76">
+      <c r="AO11" s="75">
         <f>'[1]Budget ZONA CENTRO'!AO96</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="77">
+      <c r="AP11" s="76">
         <f>'[1]Budget ZONA CENTRO'!AP96</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="75">
+      <c r="AQ11" s="74">
         <f>'[1]Budget ZONA CENTRO'!AQ96</f>
         <v>54402000</v>
       </c>
-      <c r="AR11" s="78">
+      <c r="AR11" s="77">
         <f>'[1]Budget ZONA CENTRO'!AR96</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="74">
+      <c r="AS11" s="73">
         <f>'[1]Budget ZONA CENTRO'!AS96</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="75">
+      <c r="AT11" s="74">
         <f>'[1]Budget ZONA CENTRO'!AT96</f>
         <v>37302000</v>
       </c>
-      <c r="AU11" s="76">
+      <c r="AU11" s="75">
         <f>'[1]Budget ZONA CENTRO'!AU96</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="79">
+      <c r="AV11" s="78">
         <f>'[1]Budget ZONA CENTRO'!AV96</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="80">
+      <c r="AW11" s="79">
         <f>'[1]Budget ZONA CENTRO'!AW96</f>
         <v>161484000</v>
       </c>
-      <c r="AX11" s="81">
+      <c r="AX11" s="80">
         <f>'[1]Budget ZONA CENTRO'!AX96</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="82">
+      <c r="AY11" s="81">
         <f>'[1]Budget ZONA CENTRO'!AY96</f>
         <v>80981853</v>
       </c>
-      <c r="AZ11" s="83">
+      <c r="AZ11" s="82">
         <f>'[1]Budget ZONA CENTRO'!AZ96</f>
         <v>1508190832</v>
       </c>
-      <c r="BA11" s="84">
+      <c r="BA11" s="83">
         <f>'[1]Budget ZONA CENTRO'!BA96</f>
         <v>5.3694699159927001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="161"/>
+      <c r="B12" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="73">
         <f>'[1]Budget ZONA CENTRO'!C97</f>
         <v>32880880</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="74">
         <f>'[1]Budget ZONA CENTRO'!D97</f>
         <v>35673500</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="75">
         <f>'[1]Budget ZONA CENTRO'!E97</f>
         <v>0.92171724108932396</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="76">
         <f>'[1]Budget ZONA CENTRO'!F97</f>
         <v>15762185</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="74">
         <f>'[1]Budget ZONA CENTRO'!G97</f>
         <v>39469000</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="77">
         <f>'[1]Budget ZONA CENTRO'!H97</f>
         <v>0.39935607692112796</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="73">
         <v>65</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <f>'[1]Budget ZONA CENTRO'!J97</f>
         <v>28476000</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="75">
         <f>'[1]Budget ZONA CENTRO'!K97</f>
         <v>0</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="78">
         <f>'[1]Budget ZONA CENTRO'!L97</f>
         <v>48643065</v>
       </c>
-      <c r="M12" s="80">
+      <c r="M12" s="79">
         <f>'[1]Budget ZONA CENTRO'!M97</f>
         <v>103618500</v>
       </c>
-      <c r="N12" s="81">
+      <c r="N12" s="80">
         <f>'[1]Budget ZONA CENTRO'!N97</f>
         <v>0.46944382518565703</v>
       </c>
-      <c r="O12" s="74">
+      <c r="O12" s="73">
         <v>12</v>
       </c>
-      <c r="P12" s="75">
+      <c r="P12" s="74">
         <f>'[1]Budget ZONA CENTRO'!P97</f>
         <v>27587500</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="75">
         <f>'[1]Budget ZONA CENTRO'!Q97</f>
         <v>0</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="76">
         <f>'[1]Budget ZONA CENTRO'!R97</f>
         <v>0</v>
       </c>
-      <c r="S12" s="75">
+      <c r="S12" s="74">
         <f>'[1]Budget ZONA CENTRO'!S97</f>
         <v>22921000</v>
       </c>
-      <c r="T12" s="78">
+      <c r="T12" s="77">
         <f>'[1]Budget ZONA CENTRO'!T97</f>
         <v>0</v>
       </c>
-      <c r="U12" s="74">
+      <c r="U12" s="73">
         <f>'[1]Budget ZONA CENTRO'!U97</f>
         <v>0</v>
       </c>
-      <c r="V12" s="75">
+      <c r="V12" s="74">
         <f>'[1]Budget ZONA CENTRO'!V97</f>
         <v>20607000</v>
       </c>
-      <c r="W12" s="76">
+      <c r="W12" s="75">
         <f>'[1]Budget ZONA CENTRO'!W97</f>
         <v>0</v>
       </c>
-      <c r="X12" s="79">
+      <c r="X12" s="78">
         <f>'[1]Budget ZONA CENTRO'!X97</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="80">
+      <c r="Y12" s="79">
         <f>'[1]Budget ZONA CENTRO'!Y97</f>
         <v>71115500</v>
       </c>
-      <c r="Z12" s="81">
+      <c r="Z12" s="80">
         <f>'[1]Budget ZONA CENTRO'!Z97</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="74">
+      <c r="AA12" s="73">
         <f>'[1]Budget ZONA CENTRO'!AA97</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="75">
+      <c r="AB12" s="74">
         <f>'[1]Budget ZONA CENTRO'!AB97</f>
         <v>21613000</v>
       </c>
-      <c r="AC12" s="76">
+      <c r="AC12" s="75">
         <f>'[1]Budget ZONA CENTRO'!AC97</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="77">
+      <c r="AD12" s="76">
         <f>'[1]Budget ZONA CENTRO'!AD97</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="75">
+      <c r="AE12" s="74">
         <f>'[1]Budget ZONA CENTRO'!AE97</f>
         <v>25160000</v>
       </c>
-      <c r="AF12" s="78">
+      <c r="AF12" s="77">
         <f>'[1]Budget ZONA CENTRO'!AF97</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="74">
+      <c r="AG12" s="73">
         <f>'[1]Budget ZONA CENTRO'!AG97</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="75">
+      <c r="AH12" s="74">
         <f>'[1]Budget ZONA CENTRO'!AH97</f>
         <v>30267000</v>
       </c>
-      <c r="AI12" s="76">
+      <c r="AI12" s="75">
         <f>'[1]Budget ZONA CENTRO'!AI97</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="79">
+      <c r="AJ12" s="78">
         <f>'[1]Budget ZONA CENTRO'!AJ97</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="80">
+      <c r="AK12" s="79">
         <f>'[1]Budget ZONA CENTRO'!AK97</f>
         <v>77040000</v>
       </c>
-      <c r="AL12" s="81">
+      <c r="AL12" s="80">
         <f>'[1]Budget ZONA CENTRO'!AL97</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="74">
+      <c r="AM12" s="73">
         <f>'[1]Budget ZONA CENTRO'!AM97</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="75">
+      <c r="AN12" s="74">
         <f>'[1]Budget ZONA CENTRO'!AN97</f>
         <v>32719500</v>
       </c>
-      <c r="AO12" s="76">
+      <c r="AO12" s="75">
         <f>'[1]Budget ZONA CENTRO'!AO97</f>
         <v>0</v>
       </c>
-      <c r="AP12" s="77">
+      <c r="AP12" s="76">
         <f>'[1]Budget ZONA CENTRO'!AP97</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="75">
+      <c r="AQ12" s="74">
         <f>'[1]Budget ZONA CENTRO'!AQ97</f>
         <v>33046500</v>
       </c>
-      <c r="AR12" s="78">
+      <c r="AR12" s="77">
         <f>'[1]Budget ZONA CENTRO'!AR97</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="74">
+      <c r="AS12" s="73">
         <f>'[1]Budget ZONA CENTRO'!AS97</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="75">
+      <c r="AT12" s="74">
         <f>'[1]Budget ZONA CENTRO'!AT97</f>
         <v>24111500</v>
       </c>
-      <c r="AU12" s="76">
+      <c r="AU12" s="75">
         <f>'[1]Budget ZONA CENTRO'!AU97</f>
         <v>0</v>
       </c>
-      <c r="AV12" s="79">
+      <c r="AV12" s="78">
         <f>'[1]Budget ZONA CENTRO'!AV97</f>
         <v>0</v>
       </c>
-      <c r="AW12" s="80">
+      <c r="AW12" s="79">
         <f>'[1]Budget ZONA CENTRO'!AW97</f>
         <v>89877500</v>
       </c>
-      <c r="AX12" s="81">
+      <c r="AX12" s="80">
         <f>'[1]Budget ZONA CENTRO'!AX97</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="82">
+      <c r="AY12" s="81">
         <f>'[1]Budget ZONA CENTRO'!AY97</f>
         <v>48643065</v>
       </c>
-      <c r="AZ12" s="83">
+      <c r="AZ12" s="82">
         <f>'[1]Budget ZONA CENTRO'!AZ97</f>
         <v>341651500</v>
       </c>
-      <c r="BA12" s="84">
+      <c r="BA12" s="83">
         <f>'[1]Budget ZONA CENTRO'!BA97</f>
         <v>0.14237626645865745</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="161"/>
+      <c r="B13" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="73">
         <f>'[1]Budget ZONA CENTRO'!C98</f>
         <v>6924372</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="74">
         <f>'[1]Budget ZONA CENTRO'!D98</f>
         <v>0</v>
       </c>
-      <c r="E13" s="76" t="e">
+      <c r="E13" s="75" t="e">
         <f>'[1]Budget ZONA CENTRO'!E98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="76">
         <f>'[1]Budget ZONA CENTRO'!F98</f>
         <v>55924053</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="74">
         <f>'[1]Budget ZONA CENTRO'!G98</f>
         <v>47111419.5</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="77">
         <f>'[1]Budget ZONA CENTRO'!H98</f>
         <v>1.187059392256266</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="73">
         <v>54</v>
       </c>
-      <c r="J13" s="75">
+      <c r="J13" s="74">
         <f>'[1]Budget ZONA CENTRO'!J98</f>
         <v>30502627.391470771</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="75">
         <f>'[1]Budget ZONA CENTRO'!K98</f>
         <v>0</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="78">
         <f>'[1]Budget ZONA CENTRO'!L98</f>
         <v>62848425</v>
       </c>
-      <c r="M13" s="80">
+      <c r="M13" s="79">
         <f>'[1]Budget ZONA CENTRO'!M98</f>
         <v>77614046.89147076</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N13" s="80">
         <f>'[1]Budget ZONA CENTRO'!N98</f>
         <v>0.80975580474346587</v>
       </c>
-      <c r="O13" s="74">
+      <c r="O13" s="73">
         <v>12</v>
       </c>
-      <c r="P13" s="75">
+      <c r="P13" s="74">
         <f>'[1]Budget ZONA CENTRO'!P98</f>
         <v>40652905.801470771</v>
       </c>
-      <c r="Q13" s="76">
+      <c r="Q13" s="75">
         <f>'[1]Budget ZONA CENTRO'!Q98</f>
         <v>0</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="76">
         <f>'[1]Budget ZONA CENTRO'!R98</f>
         <v>0</v>
       </c>
-      <c r="S13" s="75">
+      <c r="S13" s="74">
         <f>'[1]Budget ZONA CENTRO'!S98</f>
         <v>4506352.3914707694</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="77">
         <f>'[1]Budget ZONA CENTRO'!T98</f>
         <v>0</v>
       </c>
-      <c r="U13" s="74">
+      <c r="U13" s="73">
         <f>'[1]Budget ZONA CENTRO'!U98</f>
         <v>0</v>
       </c>
-      <c r="V13" s="75">
+      <c r="V13" s="74">
         <f>'[1]Budget ZONA CENTRO'!V98</f>
         <v>23644694.391470768</v>
       </c>
-      <c r="W13" s="76">
+      <c r="W13" s="75">
         <f>'[1]Budget ZONA CENTRO'!W98</f>
         <v>0</v>
       </c>
-      <c r="X13" s="79">
+      <c r="X13" s="78">
         <f>'[1]Budget ZONA CENTRO'!X98</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="80">
+      <c r="Y13" s="79">
         <f>'[1]Budget ZONA CENTRO'!Y98</f>
         <v>68803952.584412307</v>
       </c>
-      <c r="Z13" s="81">
+      <c r="Z13" s="80">
         <f>'[1]Budget ZONA CENTRO'!Z98</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="74">
+      <c r="AA13" s="73">
         <f>'[1]Budget ZONA CENTRO'!AA98</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="75">
+      <c r="AB13" s="74">
         <f>'[1]Budget ZONA CENTRO'!AB98</f>
         <v>1740649.3914707692</v>
       </c>
-      <c r="AC13" s="76">
+      <c r="AC13" s="75">
         <f>'[1]Budget ZONA CENTRO'!AC98</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="77">
+      <c r="AD13" s="76">
         <f>'[1]Budget ZONA CENTRO'!AD98</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="75">
+      <c r="AE13" s="74">
         <f>'[1]Budget ZONA CENTRO'!AE98</f>
         <v>62107130.891470768</v>
       </c>
-      <c r="AF13" s="78">
+      <c r="AF13" s="77">
         <f>'[1]Budget ZONA CENTRO'!AF98</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="74">
+      <c r="AG13" s="73">
         <f>'[1]Budget ZONA CENTRO'!AG98</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="75">
+      <c r="AH13" s="74">
         <f>'[1]Budget ZONA CENTRO'!AH98</f>
         <v>16220513.391470769</v>
       </c>
-      <c r="AI13" s="76">
+      <c r="AI13" s="75">
         <f>'[1]Budget ZONA CENTRO'!AI98</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="79">
+      <c r="AJ13" s="78">
         <f>'[1]Budget ZONA CENTRO'!AJ98</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="80">
+      <c r="AK13" s="79">
         <f>'[1]Budget ZONA CENTRO'!AK98</f>
         <v>80068293.67441231</v>
       </c>
-      <c r="AL13" s="81">
+      <c r="AL13" s="80">
         <f>'[1]Budget ZONA CENTRO'!AL98</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="74">
+      <c r="AM13" s="73">
         <f>'[1]Budget ZONA CENTRO'!AM98</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="75">
+      <c r="AN13" s="74">
         <f>'[1]Budget ZONA CENTRO'!AN98</f>
         <v>41861364.891470768</v>
       </c>
-      <c r="AO13" s="76">
+      <c r="AO13" s="75">
         <f>'[1]Budget ZONA CENTRO'!AO98</f>
         <v>0</v>
       </c>
-      <c r="AP13" s="77">
+      <c r="AP13" s="76">
         <f>'[1]Budget ZONA CENTRO'!AP98</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="75">
+      <c r="AQ13" s="74">
         <f>'[1]Budget ZONA CENTRO'!AQ98</f>
         <v>18715352.391470768</v>
       </c>
-      <c r="AR13" s="78">
+      <c r="AR13" s="77">
         <f>'[1]Budget ZONA CENTRO'!AR98</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="74">
+      <c r="AS13" s="73">
         <f>'[1]Budget ZONA CENTRO'!AS98</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="75">
+      <c r="AT13" s="74">
         <f>'[1]Budget ZONA CENTRO'!AT98</f>
         <v>400852.39147076919</v>
       </c>
-      <c r="AU13" s="76">
+      <c r="AU13" s="75">
         <f>'[1]Budget ZONA CENTRO'!AU98</f>
         <v>0</v>
       </c>
-      <c r="AV13" s="79">
+      <c r="AV13" s="78">
         <f>'[1]Budget ZONA CENTRO'!AV98</f>
         <v>0</v>
       </c>
-      <c r="AW13" s="80">
+      <c r="AW13" s="79">
         <f>'[1]Budget ZONA CENTRO'!AW98</f>
         <v>60977569.67441231</v>
       </c>
-      <c r="AX13" s="81">
+      <c r="AX13" s="80">
         <f>'[1]Budget ZONA CENTRO'!AX98</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="82">
+      <c r="AY13" s="81">
         <f>'[1]Budget ZONA CENTRO'!AY98</f>
         <v>62848425</v>
       </c>
-      <c r="AZ13" s="83">
+      <c r="AZ13" s="82">
         <f>'[1]Budget ZONA CENTRO'!AZ98</f>
         <v>287463862.82470769</v>
       </c>
-      <c r="BA13" s="84">
+      <c r="BA13" s="83">
         <f>'[1]Budget ZONA CENTRO'!BA98</f>
         <v>0.21863069807255836</v>
       </c>
     </row>
-    <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="173"/>
-      <c r="B14" s="85" t="s">
+    <row r="14" spans="1:53" s="61" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="162"/>
+      <c r="B14" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="85">
         <f>'[1]Budget ZONA CENTRO'!C99</f>
         <v>61604219</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="86">
         <f>'[1]Budget ZONA CENTRO'!D99</f>
         <v>66042672</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="51">
         <f t="shared" ref="E14" si="1">+C14/D14</f>
         <v>0.93279416374915902</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="87">
         <f>'[1]Budget ZONA CENTRO'!F99</f>
         <v>167532185</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="86">
         <f>'[1]Budget ZONA CENTRO'!G99</f>
         <v>239037936.5</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="88">
         <f>'[1]Budget ZONA CENTRO'!H99</f>
         <v>0.70086023772214079</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="85">
         <v>34</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="86">
         <f>'[1]Budget ZONA CENTRO'!J99</f>
         <v>252890410.39147079</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="89">
         <f>'[1]Budget ZONA CENTRO'!K99</f>
         <v>0</v>
       </c>
-      <c r="L14" s="91">
+      <c r="L14" s="90">
         <f>'[1]Budget ZONA CENTRO'!L99</f>
         <v>229136404</v>
       </c>
-      <c r="M14" s="92">
+      <c r="M14" s="91">
         <f>'[1]Budget ZONA CENTRO'!M99</f>
         <v>557971018.89147067</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="92">
         <f>'[1]Budget ZONA CENTRO'!N99</f>
         <v>0.41066004548986917</v>
       </c>
-      <c r="O14" s="86">
+      <c r="O14" s="85">
         <v>12</v>
       </c>
-      <c r="P14" s="87">
+      <c r="P14" s="86">
         <f>'[1]Budget ZONA CENTRO'!P99</f>
         <v>285190002.80147082</v>
       </c>
-      <c r="Q14" s="90">
+      <c r="Q14" s="89">
         <f>'[1]Budget ZONA CENTRO'!Q99</f>
         <v>0</v>
       </c>
-      <c r="R14" s="88">
+      <c r="R14" s="87">
         <f>'[1]Budget ZONA CENTRO'!R99</f>
         <v>0</v>
       </c>
-      <c r="S14" s="87">
+      <c r="S14" s="86">
         <f>'[1]Budget ZONA CENTRO'!S99</f>
         <v>283351977.39147079</v>
       </c>
-      <c r="T14" s="89">
+      <c r="T14" s="88">
         <f>'[1]Budget ZONA CENTRO'!T99</f>
         <v>0</v>
       </c>
-      <c r="U14" s="86">
+      <c r="U14" s="85">
         <f>'[1]Budget ZONA CENTRO'!U99</f>
         <v>0</v>
       </c>
-      <c r="V14" s="87">
+      <c r="V14" s="86">
         <f>'[1]Budget ZONA CENTRO'!V99</f>
         <v>245698137.39147079</v>
       </c>
-      <c r="W14" s="90">
+      <c r="W14" s="89">
         <f>'[1]Budget ZONA CENTRO'!W99</f>
         <v>0</v>
       </c>
-      <c r="X14" s="91">
+      <c r="X14" s="90">
         <f>'[1]Budget ZONA CENTRO'!X99</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="92">
+      <c r="Y14" s="91">
         <f>'[1]Budget ZONA CENTRO'!Y99</f>
         <v>814240117.58441222</v>
       </c>
-      <c r="Z14" s="93">
+      <c r="Z14" s="92">
         <f>'[1]Budget ZONA CENTRO'!Z99</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="86">
+      <c r="AA14" s="85">
         <f>'[1]Budget ZONA CENTRO'!AA99</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="87">
+      <c r="AB14" s="86">
         <f>'[1]Budget ZONA CENTRO'!AB99</f>
         <v>253505075.39147076</v>
       </c>
-      <c r="AC14" s="90">
+      <c r="AC14" s="89">
         <f>'[1]Budget ZONA CENTRO'!AC99</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="88">
+      <c r="AD14" s="87">
         <f>'[1]Budget ZONA CENTRO'!AD99</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="87">
+      <c r="AE14" s="86">
         <f>'[1]Budget ZONA CENTRO'!AE99</f>
         <v>236646087.89147076</v>
       </c>
-      <c r="AF14" s="89">
+      <c r="AF14" s="88">
         <f>'[1]Budget ZONA CENTRO'!AF99</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="86">
+      <c r="AG14" s="85">
         <f>'[1]Budget ZONA CENTRO'!AG99</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="87">
+      <c r="AH14" s="86">
         <f>'[1]Budget ZONA CENTRO'!AH99</f>
         <v>152658710.39147076</v>
       </c>
-      <c r="AI14" s="90">
+      <c r="AI14" s="89">
         <f>'[1]Budget ZONA CENTRO'!AI99</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="91">
+      <c r="AJ14" s="90">
         <f>'[1]Budget ZONA CENTRO'!AJ99</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="92">
+      <c r="AK14" s="91">
         <f>'[1]Budget ZONA CENTRO'!AK99</f>
         <v>642809873.67441225</v>
       </c>
-      <c r="AL14" s="93">
+      <c r="AL14" s="92">
         <f>'[1]Budget ZONA CENTRO'!AL99</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="86">
+      <c r="AM14" s="85">
         <f>'[1]Budget ZONA CENTRO'!AM99</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="87">
+      <c r="AN14" s="86">
         <f>'[1]Budget ZONA CENTRO'!AN99</f>
         <v>164043661.89147079</v>
       </c>
-      <c r="AO14" s="90">
+      <c r="AO14" s="89">
         <f>'[1]Budget ZONA CENTRO'!AO99</f>
         <v>0</v>
       </c>
-      <c r="AP14" s="88">
+      <c r="AP14" s="87">
         <f>'[1]Budget ZONA CENTRO'!AP99</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="87">
+      <c r="AQ14" s="86">
         <f>'[1]Budget ZONA CENTRO'!AQ99</f>
         <v>126284413.39147076</v>
       </c>
-      <c r="AR14" s="89">
+      <c r="AR14" s="88">
         <f>'[1]Budget ZONA CENTRO'!AR99</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="86">
+      <c r="AS14" s="85">
         <f>'[1]Budget ZONA CENTRO'!AS99</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="87">
+      <c r="AT14" s="86">
         <f>'[1]Budget ZONA CENTRO'!AT99</f>
         <v>75711195.39147076</v>
       </c>
-      <c r="AU14" s="90">
+      <c r="AU14" s="89">
         <f>'[1]Budget ZONA CENTRO'!AU99</f>
         <v>0</v>
       </c>
-      <c r="AV14" s="91">
+      <c r="AV14" s="90">
         <f>'[1]Budget ZONA CENTRO'!AV99</f>
         <v>0</v>
       </c>
-      <c r="AW14" s="92">
+      <c r="AW14" s="91">
         <f>'[1]Budget ZONA CENTRO'!AW99</f>
         <v>366039270.67441231</v>
       </c>
-      <c r="AX14" s="93">
+      <c r="AX14" s="92">
         <f>'[1]Budget ZONA CENTRO'!AX99</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="94">
+      <c r="AY14" s="93">
         <f>'[1]Budget ZONA CENTRO'!AY99</f>
         <v>229136404</v>
       </c>
-      <c r="AZ14" s="95">
+      <c r="AZ14" s="94">
         <f>'[1]Budget ZONA CENTRO'!AZ99</f>
         <v>2381060280.8247075</v>
       </c>
-      <c r="BA14" s="96">
+      <c r="BA14" s="95">
         <f>'[1]Budget ZONA CENTRO'!BA99</f>
         <v>9.6232928601301934E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:53" s="96" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="168" t="s">
+      <c r="A16" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C16" s="97">
         <f>C5+C10</f>
         <v>19170773</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="98">
         <f>D5+D10</f>
         <v>21771846.560000002</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="99">
         <f>+C16/D16</f>
         <v>0.8805304110135157</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="100">
         <f>F5+F10</f>
         <v>56448784</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="101">
         <f>G5+G10</f>
         <v>64546332.219999999</v>
       </c>
-      <c r="H16" s="103">
+      <c r="H16" s="102">
         <f>+F16/G16</f>
         <v>0.87454673346271206</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="97">
         <f>I5+I10</f>
         <v>464</v>
       </c>
-      <c r="J16" s="99">
+      <c r="J16" s="98">
         <f>J5+J10</f>
         <v>31331681.809999999</v>
       </c>
-      <c r="K16" s="100">
+      <c r="K16" s="99">
         <f>+I16/J16</f>
         <v>1.4809291209254752E-5</v>
       </c>
-      <c r="L16" s="104">
+      <c r="L16" s="103">
         <f>L5+L10</f>
         <v>75619557</v>
       </c>
-      <c r="M16" s="105">
+      <c r="M16" s="104">
         <f>M5+M10</f>
         <v>117649860.59</v>
       </c>
-      <c r="N16" s="106">
+      <c r="N16" s="105">
         <f>+L16/M16</f>
         <v>0.64275092737702322</v>
       </c>
-      <c r="O16" s="98">
+      <c r="O16" s="97">
         <f>O5+O10</f>
         <v>3353</v>
       </c>
-      <c r="P16" s="99">
+      <c r="P16" s="98">
         <f>P5+P10</f>
         <v>56769754.210000001</v>
       </c>
-      <c r="Q16" s="100">
+      <c r="Q16" s="99">
         <f>+O16/P16</f>
         <v>5.9063141045084331E-5</v>
       </c>
-      <c r="R16" s="107">
+      <c r="R16" s="106">
         <f>R5+R10</f>
         <v>0</v>
       </c>
-      <c r="S16" s="99">
+      <c r="S16" s="98">
         <f>S5+S10</f>
         <v>72428557.99000001</v>
       </c>
-      <c r="T16" s="103">
+      <c r="T16" s="102">
         <f>+R16/S16</f>
         <v>0</v>
       </c>
-      <c r="U16" s="98">
+      <c r="U16" s="97">
         <f>U5+U10</f>
         <v>0</v>
       </c>
-      <c r="V16" s="99">
+      <c r="V16" s="98">
         <f>V5+V10</f>
         <v>30408650.829999998</v>
       </c>
-      <c r="W16" s="100">
+      <c r="W16" s="99">
         <f>+U16/V16</f>
         <v>0</v>
       </c>
-      <c r="X16" s="104">
+      <c r="X16" s="103">
         <f>X5+X10</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="105">
+      <c r="Y16" s="104">
         <f>Y5+Y10</f>
         <v>159606963.03</v>
       </c>
-      <c r="Z16" s="106">
+      <c r="Z16" s="105">
         <f>+X16/Y16</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="98">
+      <c r="AA16" s="97">
         <f>AA5+AA10</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="99">
+      <c r="AB16" s="98">
         <f>AB5+AB10</f>
         <v>50548986.560000002</v>
       </c>
-      <c r="AC16" s="100">
+      <c r="AC16" s="99">
         <f>+AA16/AB16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="107">
+      <c r="AD16" s="106">
         <f>AD5+AD10</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="99">
+      <c r="AE16" s="98">
         <f>AE5+AE10</f>
         <v>65295662.219999999</v>
       </c>
-      <c r="AF16" s="103">
+      <c r="AF16" s="102">
         <f>+AD16/AE16</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="98">
+      <c r="AG16" s="97">
         <f>AG5+AG10</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="99">
+      <c r="AH16" s="98">
         <f>AH5+AH10</f>
         <v>52618285.719999999</v>
       </c>
-      <c r="AI16" s="100">
+      <c r="AI16" s="99">
         <f>+AG16/AH16</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="104">
+      <c r="AJ16" s="103">
         <f>AJ5+AJ10</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="105">
+      <c r="AK16" s="104">
         <f>AK5+AK10</f>
         <v>168462934.5</v>
       </c>
-      <c r="AL16" s="106">
+      <c r="AL16" s="105">
         <f>+AJ16/AK16</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="98">
+      <c r="AM16" s="97">
         <f>AM5+AM10</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="99">
+      <c r="AN16" s="98">
         <f>AN5+AN10</f>
         <v>43647950.829999998</v>
       </c>
-      <c r="AO16" s="100">
+      <c r="AO16" s="99">
         <f>+AM16/AN16</f>
         <v>0</v>
       </c>
-      <c r="AP16" s="107">
+      <c r="AP16" s="106">
         <f>AP5+AP10</f>
         <v>0</v>
       </c>
-      <c r="AQ16" s="99">
+      <c r="AQ16" s="98">
         <f>AQ5+AQ10</f>
         <v>53229030.950000003</v>
       </c>
-      <c r="AR16" s="103">
+      <c r="AR16" s="102">
         <f>+AP16/AQ16</f>
         <v>0</v>
       </c>
-      <c r="AS16" s="98">
+      <c r="AS16" s="97">
         <f>AS5+AS10</f>
         <v>0</v>
       </c>
-      <c r="AT16" s="99">
+      <c r="AT16" s="98">
         <f>AT5+AT10</f>
         <v>32176042.829999998</v>
       </c>
-      <c r="AU16" s="100">
+      <c r="AU16" s="99">
         <f>+AS16/AT16</f>
         <v>0</v>
       </c>
-      <c r="AV16" s="104">
+      <c r="AV16" s="103">
         <f>AV5+AV10</f>
         <v>0</v>
       </c>
-      <c r="AW16" s="105">
+      <c r="AW16" s="104">
         <f>AW5+AW10</f>
         <v>129053024.61</v>
       </c>
-      <c r="AX16" s="106">
+      <c r="AX16" s="105">
         <f>+AV16/AW16</f>
         <v>0</v>
       </c>
-      <c r="AY16" s="108">
+      <c r="AY16" s="107">
         <f>AY5+AY10</f>
         <v>75619557</v>
       </c>
-      <c r="AZ16" s="109">
+      <c r="AZ16" s="108">
         <f>AZ5+AZ10</f>
         <v>574772782.73000002</v>
       </c>
-      <c r="BA16" s="110">
+      <c r="BA16" s="109">
         <f>+AY16/AZ16</f>
         <v>0.13156426203904362</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="169"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="161"/>
+      <c r="B17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <f t="shared" ref="C17:D20" si="2">C6+C11</f>
         <v>36985921</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="111">
         <f t="shared" si="2"/>
         <v>44292912</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="112">
         <f t="shared" ref="E17:E21" si="3">+C17/D17</f>
         <v>0.83503024140747395</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="113">
         <f t="shared" ref="F17:G19" si="4">F6+F11</f>
         <v>96425893</v>
       </c>
-      <c r="G17" s="115">
+      <c r="G17" s="114">
         <f t="shared" si="4"/>
         <v>239848128</v>
       </c>
-      <c r="H17" s="116">
+      <c r="H17" s="115">
         <f t="shared" ref="H17:H20" si="5">+F17/G17</f>
         <v>0.40202895809134687</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="110">
         <f t="shared" ref="I17:J20" si="6">I6+I11</f>
         <v>757</v>
       </c>
-      <c r="J17" s="112">
+      <c r="J17" s="111">
         <f t="shared" si="6"/>
         <v>389699520</v>
       </c>
-      <c r="K17" s="113">
+      <c r="K17" s="112">
         <f t="shared" ref="K17:K20" si="7">+I17/J17</f>
         <v>1.9425222797297774E-6</v>
       </c>
-      <c r="L17" s="117">
+      <c r="L17" s="116">
         <f t="shared" ref="L17:M20" si="8">L6+L11</f>
         <v>133411814</v>
       </c>
-      <c r="M17" s="118">
+      <c r="M17" s="117">
         <f t="shared" si="8"/>
         <v>673840560</v>
       </c>
-      <c r="N17" s="119">
+      <c r="N17" s="118">
         <f t="shared" ref="N17:N20" si="9">+L17/M17</f>
         <v>0.19798721228653854</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="110">
         <f t="shared" ref="O17:P20" si="10">O6+O11</f>
         <v>3353</v>
       </c>
-      <c r="P17" s="112">
+      <c r="P17" s="111">
         <f t="shared" si="10"/>
         <v>398715696</v>
       </c>
-      <c r="Q17" s="113">
+      <c r="Q17" s="112">
         <f t="shared" ref="Q17:Q20" si="11">+O17/P17</f>
         <v>8.4095008890746057E-6</v>
       </c>
-      <c r="R17" s="120">
+      <c r="R17" s="119">
         <f t="shared" ref="R17:S20" si="12">R6+R11</f>
         <v>0</v>
       </c>
-      <c r="S17" s="112">
+      <c r="S17" s="111">
         <f t="shared" si="12"/>
         <v>426254784</v>
       </c>
-      <c r="T17" s="116">
+      <c r="T17" s="115">
         <f t="shared" ref="T17:T20" si="13">+R17/S17</f>
         <v>0</v>
       </c>
-      <c r="U17" s="111">
+      <c r="U17" s="110">
         <f t="shared" ref="U17:V20" si="14">U6+U11</f>
         <v>0</v>
       </c>
-      <c r="V17" s="112">
+      <c r="V17" s="111">
         <f t="shared" si="14"/>
         <v>311947424</v>
       </c>
-      <c r="W17" s="113">
+      <c r="W17" s="112">
         <f t="shared" ref="W17:W20" si="15">+U17/V17</f>
         <v>0</v>
       </c>
-      <c r="X17" s="117">
+      <c r="X17" s="116">
         <f t="shared" ref="X17:Y20" si="16">X6+X11</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="118">
+      <c r="Y17" s="117">
         <f t="shared" si="16"/>
         <v>1136917904</v>
       </c>
-      <c r="Z17" s="119">
+      <c r="Z17" s="118">
         <f t="shared" ref="Z17:Z20" si="17">+X17/Y17</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="111">
+      <c r="AA17" s="110">
         <f t="shared" ref="AA17:AB20" si="18">AA6+AA11</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="112">
+      <c r="AB17" s="111">
         <f t="shared" si="18"/>
         <v>338387456</v>
       </c>
-      <c r="AC17" s="113">
+      <c r="AC17" s="112">
         <f t="shared" ref="AC17:AC20" si="19">+AA17/AB17</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="120">
+      <c r="AD17" s="119">
         <f t="shared" ref="AD17:AE20" si="20">AD6+AD11</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="112">
+      <c r="AE17" s="111">
         <f t="shared" si="20"/>
         <v>209033360</v>
       </c>
-      <c r="AF17" s="116">
+      <c r="AF17" s="115">
         <f t="shared" ref="AF17:AF20" si="21">+AD17/AE17</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="111">
+      <c r="AG17" s="110">
         <f t="shared" ref="AG17:AH20" si="22">AG6+AG11</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="112">
+      <c r="AH17" s="111">
         <f t="shared" si="22"/>
         <v>99087824</v>
       </c>
-      <c r="AI17" s="113">
+      <c r="AI17" s="112">
         <f t="shared" ref="AI17:AI20" si="23">+AG17/AH17</f>
         <v>0</v>
       </c>
-      <c r="AJ17" s="117">
+      <c r="AJ17" s="116">
         <f t="shared" ref="AJ17:AK20" si="24">AJ6+AJ11</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="118">
+      <c r="AK17" s="117">
         <f t="shared" si="24"/>
         <v>646508640</v>
       </c>
-      <c r="AL17" s="119">
+      <c r="AL17" s="118">
         <f t="shared" ref="AL17:AL20" si="25">+AJ17/AK17</f>
         <v>0</v>
       </c>
-      <c r="AM17" s="111">
+      <c r="AM17" s="110">
         <f t="shared" ref="AM17:AN20" si="26">AM6+AM11</f>
         <v>0</v>
       </c>
-      <c r="AN17" s="112">
+      <c r="AN17" s="111">
         <f t="shared" si="26"/>
         <v>90980000</v>
       </c>
-      <c r="AO17" s="113">
+      <c r="AO17" s="112">
         <f t="shared" ref="AO17:AO20" si="27">+AM17/AN17</f>
         <v>0</v>
       </c>
-      <c r="AP17" s="120">
+      <c r="AP17" s="119">
         <f t="shared" ref="AP17:AQ20" si="28">AP6+AP11</f>
         <v>0</v>
       </c>
-      <c r="AQ17" s="112">
+      <c r="AQ17" s="111">
         <f t="shared" si="28"/>
         <v>75602000</v>
       </c>
-      <c r="AR17" s="116">
+      <c r="AR17" s="115">
         <f t="shared" ref="AR17:AR20" si="29">+AP17/AQ17</f>
         <v>0</v>
       </c>
-      <c r="AS17" s="111">
+      <c r="AS17" s="110">
         <f t="shared" ref="AS17:AT20" si="30">AS6+AS11</f>
         <v>0</v>
       </c>
-      <c r="AT17" s="112">
+      <c r="AT17" s="111">
         <f t="shared" si="30"/>
         <v>58502000</v>
       </c>
-      <c r="AU17" s="113">
+      <c r="AU17" s="112">
         <f t="shared" ref="AU17:AU20" si="31">+AS17/AT17</f>
         <v>0</v>
       </c>
-      <c r="AV17" s="117">
+      <c r="AV17" s="116">
         <f t="shared" ref="AV17:AW20" si="32">AV6+AV11</f>
         <v>0</v>
       </c>
-      <c r="AW17" s="118">
+      <c r="AW17" s="117">
         <f t="shared" si="32"/>
         <v>225084000</v>
       </c>
-      <c r="AX17" s="119">
+      <c r="AX17" s="118">
         <f t="shared" ref="AX17:AX20" si="33">+AV17/AW17</f>
         <v>0</v>
       </c>
-      <c r="AY17" s="121">
+      <c r="AY17" s="120">
         <f t="shared" ref="AY17:AZ20" si="34">AY6+AY11</f>
         <v>133411814</v>
       </c>
-      <c r="AZ17" s="122">
+      <c r="AZ17" s="121">
         <f t="shared" si="34"/>
         <v>2682351104</v>
       </c>
-      <c r="BA17" s="123">
+      <c r="BA17" s="122">
         <f t="shared" ref="BA17:BA20" si="35">+AY17/AZ17</f>
         <v>4.973689454786602E-2</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="161"/>
+      <c r="B18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <f t="shared" si="2"/>
         <v>57134955</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="111">
         <f t="shared" si="2"/>
         <v>62253500</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="112">
         <f t="shared" si="3"/>
         <v>0.91777900037748883</v>
       </c>
-      <c r="F18" s="120">
+      <c r="F18" s="119">
         <f t="shared" si="4"/>
         <v>39814580</v>
       </c>
-      <c r="G18" s="112">
+      <c r="G18" s="111">
         <f t="shared" si="4"/>
         <v>70243000</v>
       </c>
-      <c r="H18" s="116">
+      <c r="H18" s="115">
         <f t="shared" si="5"/>
         <v>0.56681206668280115</v>
       </c>
-      <c r="I18" s="111">
+      <c r="I18" s="110">
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
-      <c r="J18" s="112">
+      <c r="J18" s="111">
         <f t="shared" si="6"/>
         <v>59751000</v>
       </c>
-      <c r="K18" s="113">
+      <c r="K18" s="112">
         <f t="shared" si="7"/>
         <v>6.4936151696205925E-6</v>
       </c>
-      <c r="L18" s="117">
+      <c r="L18" s="116">
         <f t="shared" si="8"/>
         <v>96949535</v>
       </c>
-      <c r="M18" s="118">
+      <c r="M18" s="117">
         <f t="shared" si="8"/>
         <v>192247500</v>
       </c>
-      <c r="N18" s="119">
+      <c r="N18" s="118">
         <f t="shared" si="9"/>
         <v>0.50429542646848469</v>
       </c>
-      <c r="O18" s="111">
+      <c r="O18" s="110">
         <f t="shared" si="10"/>
         <v>3244</v>
       </c>
-      <c r="P18" s="112">
+      <c r="P18" s="111">
         <f t="shared" si="10"/>
         <v>62555500</v>
       </c>
-      <c r="Q18" s="113">
+      <c r="Q18" s="112">
         <f t="shared" si="11"/>
         <v>5.1857950140275433E-5</v>
       </c>
-      <c r="R18" s="120">
+      <c r="R18" s="119">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S18" s="112">
+      <c r="S18" s="111">
         <f t="shared" si="12"/>
         <v>60782000</v>
       </c>
-      <c r="T18" s="116">
+      <c r="T18" s="115">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U18" s="111">
+      <c r="U18" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V18" s="112">
+      <c r="V18" s="111">
         <f t="shared" si="14"/>
         <v>55688500</v>
       </c>
-      <c r="W18" s="113">
+      <c r="W18" s="112">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X18" s="117">
+      <c r="X18" s="116">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="118">
+      <c r="Y18" s="117">
         <f t="shared" si="16"/>
         <v>179026000</v>
       </c>
-      <c r="Z18" s="119">
+      <c r="Z18" s="118">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="111">
+      <c r="AA18" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="112">
+      <c r="AB18" s="111">
         <f t="shared" si="18"/>
         <v>59310500</v>
       </c>
-      <c r="AC18" s="113">
+      <c r="AC18" s="112">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="120">
+      <c r="AD18" s="119">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="112">
+      <c r="AE18" s="111">
         <f t="shared" si="20"/>
         <v>59516500</v>
       </c>
-      <c r="AF18" s="116">
+      <c r="AF18" s="115">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="111">
+      <c r="AG18" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH18" s="112">
+      <c r="AH18" s="111">
         <f t="shared" si="22"/>
         <v>55979500</v>
       </c>
-      <c r="AI18" s="113">
+      <c r="AI18" s="112">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="117">
+      <c r="AJ18" s="116">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="118">
+      <c r="AK18" s="117">
         <f t="shared" si="24"/>
         <v>174806500</v>
       </c>
-      <c r="AL18" s="119">
+      <c r="AL18" s="118">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="111">
+      <c r="AM18" s="110">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="112">
+      <c r="AN18" s="111">
         <f t="shared" si="26"/>
         <v>59765000</v>
       </c>
-      <c r="AO18" s="113">
+      <c r="AO18" s="112">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="120">
+      <c r="AP18" s="119">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="112">
+      <c r="AQ18" s="111">
         <f t="shared" si="28"/>
         <v>59438000</v>
       </c>
-      <c r="AR18" s="116">
+      <c r="AR18" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AS18" s="111">
+      <c r="AS18" s="110">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AT18" s="112">
+      <c r="AT18" s="111">
         <f t="shared" si="30"/>
         <v>55034500</v>
       </c>
-      <c r="AU18" s="113">
+      <c r="AU18" s="112">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AV18" s="117">
+      <c r="AV18" s="116">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AW18" s="118">
+      <c r="AW18" s="117">
         <f t="shared" si="32"/>
         <v>174237500</v>
       </c>
-      <c r="AX18" s="119">
+      <c r="AX18" s="118">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AY18" s="121">
+      <c r="AY18" s="120">
         <f t="shared" si="34"/>
         <v>96949535</v>
       </c>
-      <c r="AZ18" s="122">
+      <c r="AZ18" s="121">
         <f t="shared" si="34"/>
         <v>720317500</v>
       </c>
-      <c r="BA18" s="123">
+      <c r="BA18" s="122">
         <f t="shared" si="35"/>
         <v>0.13459278026703503</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="169"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="161"/>
+      <c r="B19" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="110">
         <f t="shared" si="2"/>
         <v>15579837</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="111">
         <f t="shared" si="2"/>
         <v>100213.0978676923</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="112">
         <f t="shared" si="3"/>
         <v>155.46707298251064</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="119">
         <f>F8+F13+3085483+10386558</f>
         <v>73365389</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="111">
         <f t="shared" si="4"/>
         <v>106662666.69573538</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="115">
         <f t="shared" si="5"/>
         <v>0.6878263151743732</v>
       </c>
-      <c r="I19" s="111">
+      <c r="I19" s="110">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="J19" s="112">
+      <c r="J19" s="111">
         <f t="shared" si="6"/>
         <v>143198922.29854068</v>
       </c>
-      <c r="K19" s="113">
+      <c r="K19" s="112">
         <f t="shared" si="7"/>
         <v>6.1452976452251406E-7</v>
       </c>
-      <c r="L19" s="117">
+      <c r="L19" s="116">
         <f t="shared" si="8"/>
         <v>75473185</v>
       </c>
-      <c r="M19" s="118">
+      <c r="M19" s="117">
         <f t="shared" si="8"/>
         <v>249961802.09214374</v>
       </c>
-      <c r="N19" s="119">
+      <c r="N19" s="118">
         <f t="shared" si="9"/>
         <v>0.30193887373310829</v>
       </c>
-      <c r="O19" s="111">
+      <c r="O19" s="110">
         <f t="shared" si="10"/>
         <v>456</v>
       </c>
-      <c r="P19" s="112">
+      <c r="P19" s="111">
         <f t="shared" si="10"/>
         <v>54920330.206408389</v>
       </c>
-      <c r="Q19" s="113">
+      <c r="Q19" s="112">
         <f t="shared" si="11"/>
         <v>8.3029362402994354E-6</v>
       </c>
-      <c r="R19" s="120">
+      <c r="R19" s="119">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S19" s="112">
+      <c r="S19" s="111">
         <f t="shared" si="12"/>
         <v>16578604.156408386</v>
       </c>
-      <c r="T19" s="116">
+      <c r="T19" s="115">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U19" s="111">
+      <c r="U19" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V19" s="112">
+      <c r="V19" s="111">
         <f t="shared" si="14"/>
         <v>45439554.222241729</v>
       </c>
-      <c r="W19" s="113">
+      <c r="W19" s="112">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X19" s="117">
+      <c r="X19" s="116">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="118">
+      <c r="Y19" s="117">
         <f t="shared" si="16"/>
         <v>116938488.5850585</v>
       </c>
-      <c r="Z19" s="119">
+      <c r="Z19" s="118">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="111">
+      <c r="AA19" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="112">
+      <c r="AB19" s="111">
         <f t="shared" si="18"/>
         <v>3890168.222241723</v>
       </c>
-      <c r="AC19" s="113">
+      <c r="AC19" s="112">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="120">
+      <c r="AD19" s="119">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="112">
+      <c r="AE19" s="111">
         <f t="shared" si="20"/>
         <v>93173178.722241729</v>
       </c>
-      <c r="AF19" s="116">
+      <c r="AF19" s="115">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="111">
+      <c r="AG19" s="110">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="112">
+      <c r="AH19" s="111">
         <f t="shared" si="22"/>
         <v>64230822.276408382</v>
       </c>
-      <c r="AI19" s="113">
+      <c r="AI19" s="112">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="117">
+      <c r="AJ19" s="116">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="118">
+      <c r="AK19" s="117">
         <f t="shared" si="24"/>
         <v>161294169.22089183</v>
       </c>
-      <c r="AL19" s="119">
+      <c r="AL19" s="118">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="111">
+      <c r="AM19" s="110">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="112">
+      <c r="AN19" s="111">
         <f t="shared" si="26"/>
         <v>42830516.656408384</v>
       </c>
-      <c r="AO19" s="113">
+      <c r="AO19" s="112">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="120">
+      <c r="AP19" s="119">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="112">
+      <c r="AQ19" s="111">
         <f t="shared" si="28"/>
         <v>41607160.156408392</v>
       </c>
-      <c r="AR19" s="116">
+      <c r="AR19" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="111">
+      <c r="AS19" s="110">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="112">
+      <c r="AT19" s="111">
         <f t="shared" si="30"/>
         <v>1010148.0265063384</v>
       </c>
-      <c r="AU19" s="113">
+      <c r="AU19" s="112">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AV19" s="117">
+      <c r="AV19" s="116">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AW19" s="118">
+      <c r="AW19" s="117">
         <f t="shared" si="32"/>
         <v>85447824.839323133</v>
       </c>
-      <c r="AX19" s="119">
+      <c r="AX19" s="118">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AY19" s="121">
+      <c r="AY19" s="120">
         <f t="shared" si="34"/>
         <v>75473185</v>
       </c>
-      <c r="AZ19" s="122">
+      <c r="AZ19" s="121">
         <f t="shared" si="34"/>
         <v>613642284.73741722</v>
       </c>
-      <c r="BA19" s="123">
+      <c r="BA19" s="122">
         <f t="shared" si="35"/>
         <v>0.12299215174243676</v>
       </c>
     </row>
-    <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="173"/>
-      <c r="B20" s="85" t="s">
+    <row r="20" spans="1:53" s="61" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="162"/>
+      <c r="B20" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="124">
+      <c r="C20" s="123">
         <f t="shared" si="2"/>
         <v>128871486</v>
       </c>
-      <c r="D20" s="125">
+      <c r="D20" s="124">
         <f t="shared" si="2"/>
         <v>128418471.6578677</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="51">
         <f t="shared" si="3"/>
         <v>1.0035276415945771</v>
       </c>
-      <c r="F20" s="126">
+      <c r="F20" s="125">
         <f t="shared" ref="F20:G20" si="36">F9+F14</f>
         <v>252582605</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="124">
         <f t="shared" si="36"/>
         <v>481300126.91573536</v>
       </c>
-      <c r="H20" s="127">
+      <c r="H20" s="126">
         <f t="shared" si="5"/>
         <v>0.52479230915353869</v>
       </c>
-      <c r="I20" s="124">
+      <c r="I20" s="123">
         <f t="shared" si="6"/>
         <v>579</v>
       </c>
-      <c r="J20" s="125">
+      <c r="J20" s="124">
         <f t="shared" si="6"/>
         <v>623981124.10854077</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="51">
         <f t="shared" si="7"/>
         <v>9.2791268458191957E-7</v>
       </c>
-      <c r="L20" s="128">
+      <c r="L20" s="127">
         <f t="shared" si="8"/>
         <v>381454091</v>
       </c>
-      <c r="M20" s="129">
+      <c r="M20" s="128">
         <f t="shared" si="8"/>
         <v>1233699722.6821437</v>
       </c>
-      <c r="N20" s="130">
+      <c r="N20" s="129">
         <f t="shared" si="9"/>
         <v>0.30919524742268234</v>
       </c>
-      <c r="O20" s="124">
+      <c r="O20" s="123">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="P20" s="125">
+      <c r="P20" s="124">
         <f t="shared" si="10"/>
         <v>572961280.4164083</v>
       </c>
-      <c r="Q20" s="52">
+      <c r="Q20" s="51">
         <f t="shared" si="11"/>
         <v>2.094382362326267E-8</v>
       </c>
-      <c r="R20" s="126">
+      <c r="R20" s="125">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S20" s="125">
+      <c r="S20" s="124">
         <f t="shared" si="12"/>
         <v>576043946.14640832</v>
       </c>
-      <c r="T20" s="127">
+      <c r="T20" s="126">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U20" s="124">
+      <c r="U20" s="123">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V20" s="125">
+      <c r="V20" s="124">
         <f t="shared" si="14"/>
         <v>443484129.05224174</v>
       </c>
-      <c r="W20" s="52">
+      <c r="W20" s="51">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X20" s="128">
+      <c r="X20" s="127">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="129">
+      <c r="Y20" s="128">
         <f t="shared" si="16"/>
         <v>1592489355.6150584</v>
       </c>
-      <c r="Z20" s="130">
+      <c r="Z20" s="129">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="124">
+      <c r="AA20" s="123">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="125">
+      <c r="AB20" s="124">
         <f t="shared" si="18"/>
         <v>452137110.7822417</v>
       </c>
-      <c r="AC20" s="52">
+      <c r="AC20" s="51">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="126">
+      <c r="AD20" s="125">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="125">
+      <c r="AE20" s="124">
         <f t="shared" si="20"/>
         <v>427018700.94224173</v>
       </c>
-      <c r="AF20" s="127">
+      <c r="AF20" s="126">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="124">
+      <c r="AG20" s="123">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH20" s="125">
+      <c r="AH20" s="124">
         <f t="shared" si="22"/>
         <v>271916431.9964084</v>
       </c>
-      <c r="AI20" s="52">
+      <c r="AI20" s="51">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="128">
+      <c r="AJ20" s="127">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="129">
+      <c r="AK20" s="128">
         <f t="shared" si="24"/>
         <v>1151072243.7208917</v>
       </c>
-      <c r="AL20" s="130">
+      <c r="AL20" s="129">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="124">
+      <c r="AM20" s="123">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="125">
+      <c r="AN20" s="124">
         <f t="shared" si="26"/>
         <v>237223467.48640838</v>
       </c>
-      <c r="AO20" s="52">
+      <c r="AO20" s="51">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="126">
+      <c r="AP20" s="125">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="125">
+      <c r="AQ20" s="124">
         <f t="shared" si="28"/>
         <v>229876191.10640836</v>
       </c>
-      <c r="AR20" s="127">
+      <c r="AR20" s="126">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AS20" s="124">
+      <c r="AS20" s="123">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="125">
+      <c r="AT20" s="124">
         <f t="shared" si="30"/>
         <v>146722690.85650632</v>
       </c>
-      <c r="AU20" s="52">
+      <c r="AU20" s="51">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AV20" s="128">
+      <c r="AV20" s="127">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AW20" s="129">
+      <c r="AW20" s="128">
         <f t="shared" si="32"/>
         <v>613822349.44932318</v>
       </c>
-      <c r="AX20" s="130">
+      <c r="AX20" s="129">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AY20" s="131">
+      <c r="AY20" s="130">
         <f t="shared" si="34"/>
         <v>381454091</v>
       </c>
-      <c r="AZ20" s="132">
+      <c r="AZ20" s="131">
         <f t="shared" si="34"/>
         <v>4591083671.4674168</v>
       </c>
-      <c r="BA20" s="133">
+      <c r="BA20" s="132">
         <f t="shared" si="35"/>
         <v>8.308585037790836E-2</v>
       </c>
     </row>
     <row r="21" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="134">
+      <c r="C21" s="133">
         <v>145090962</v>
       </c>
-      <c r="D21" s="134">
+      <c r="D21" s="133">
         <v>128418471.6578677</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="51">
         <f t="shared" si="3"/>
         <v>1.1298293783354714</v>
       </c>
-      <c r="AZ21" s="135"/>
+      <c r="AZ21" s="134"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
@@ -32062,59 +32057,59 @@
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="137">
+      <c r="C26" s="136">
         <f>D16-C16</f>
         <v>2601073.5600000024</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="137">
+      <c r="C27" s="136">
         <f t="shared" ref="C27:C29" si="37">D17-C17</f>
         <v>7306991</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="137">
+      <c r="C28" s="136">
         <f t="shared" si="37"/>
         <v>5118545</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <f>C19/9</f>
         <v>1731093</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="137">
+      <c r="C29" s="136">
         <f t="shared" si="37"/>
         <v>-15479623.902132308</v>
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="135" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="137">
+      <c r="C30" s="136">
         <f>SUM(C26:C29)</f>
         <v>-453014.34213230573</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="138">
+      <c r="C33" s="137">
         <v>12000000</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -32122,16 +32117,16 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="138">
+      <c r="C34" s="137">
         <f>9*E28</f>
         <v>15579837</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="134"/>
+      <c r="C35" s="133"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C36" s="4">
@@ -32139,55 +32134,55 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="174" t="s">
+      <c r="B38" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="174"/>
+      <c r="C38" s="163"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="139" t="s">
+      <c r="B39" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="140">
+      <c r="C39" s="139">
         <v>6800000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="140">
+      <c r="C40" s="139">
         <v>3400000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="139" t="s">
+      <c r="B41" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="140">
+      <c r="C41" s="139">
         <v>1700000</v>
       </c>
-      <c r="D41" s="141">
+      <c r="D41" s="140">
         <f>C41-1700000</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="174"/>
+      <c r="C44" s="163"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="142" t="s">
+      <c r="A45" s="141" t="s">
         <v>119</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="138">
+      <c r="C45" s="137">
         <v>3808000</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -32195,13 +32190,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="142" t="s">
+      <c r="A46" s="141" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="143">
+      <c r="C46" s="142">
         <v>394220</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -32209,25 +32204,25 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="144" t="s">
+      <c r="A47" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="145" t="s">
+      <c r="B47" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="146">
+      <c r="C47" s="145">
         <v>1998665</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="142" t="s">
+      <c r="A48" s="141" t="s">
         <v>126</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="138">
+      <c r="C48" s="137">
         <v>3085483</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -32235,13 +32230,13 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="138">
+      <c r="C49" s="137">
         <f>(1454700*1.19*6)</f>
         <v>10386558</v>
       </c>
@@ -32253,10 +32248,10 @@
       <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="147" t="s">
+      <c r="C52" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="147" t="s">
+      <c r="D52" s="146" t="s">
         <v>81</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -32264,182 +32259,182 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="138">
+      <c r="C53" s="137">
         <v>1109130</v>
       </c>
-      <c r="D53" s="138">
+      <c r="D53" s="137">
         <v>7815500</v>
       </c>
-      <c r="E53" s="149">
+      <c r="E53" s="148">
         <f>D53-C53</f>
         <v>6706370</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138">
+      <c r="C54" s="137"/>
+      <c r="D54" s="137">
         <v>1308000</v>
       </c>
-      <c r="E54" s="149">
+      <c r="E54" s="148">
         <f t="shared" ref="E54:E60" si="38">D54-C54</f>
         <v>1308000</v>
       </c>
-      <c r="F54" s="136" t="s">
+      <c r="F54" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="138">
+      <c r="G54" s="137">
         <v>56448784</v>
       </c>
-      <c r="H54" s="138">
+      <c r="H54" s="137">
         <v>64546332.219999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="147" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138">
+      <c r="C55" s="137"/>
+      <c r="D55" s="137">
         <v>5171500</v>
       </c>
-      <c r="E55" s="149">
+      <c r="E55" s="148">
         <f t="shared" si="38"/>
         <v>5171500</v>
       </c>
-      <c r="F55" s="136" t="s">
+      <c r="F55" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="G55" s="138">
+      <c r="G55" s="137">
         <v>96425893</v>
       </c>
-      <c r="H55" s="138">
+      <c r="H55" s="137">
         <v>239848128</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="148" t="s">
+      <c r="B56" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138">
+      <c r="C56" s="137"/>
+      <c r="D56" s="137">
         <v>981000</v>
       </c>
-      <c r="E56" s="149">
+      <c r="E56" s="148">
         <f t="shared" si="38"/>
         <v>981000</v>
       </c>
-      <c r="F56" s="136" t="s">
+      <c r="F56" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="138">
+      <c r="G56" s="137">
         <f>39814580+E61</f>
         <v>61392800</v>
       </c>
-      <c r="H56" s="138">
+      <c r="H56" s="137">
         <v>70243000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="148" t="s">
+      <c r="B57" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="138">
+      <c r="C57" s="137">
         <v>2117250</v>
       </c>
-      <c r="D57" s="138">
+      <c r="D57" s="137">
         <v>3874000</v>
       </c>
-      <c r="E57" s="149">
+      <c r="E57" s="148">
         <f t="shared" si="38"/>
         <v>1756750</v>
       </c>
-      <c r="F57" s="136" t="s">
+      <c r="F57" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="138">
+      <c r="G57" s="137">
         <f>73365389+E75</f>
         <v>99710572.097867697</v>
       </c>
-      <c r="H57" s="138">
+      <c r="H57" s="137">
         <v>106662666.69573538</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="148" t="s">
+      <c r="B58" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="138">
+      <c r="C58" s="137">
         <v>1574400</v>
       </c>
-      <c r="D58" s="138">
+      <c r="D58" s="137">
         <v>5430500</v>
       </c>
-      <c r="E58" s="149">
+      <c r="E58" s="148">
         <f t="shared" si="38"/>
         <v>3856100</v>
       </c>
-      <c r="F58" s="150" t="s">
+      <c r="F58" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="G58" s="149">
+      <c r="G58" s="148">
         <f>SUM(G54,G56:G57)</f>
         <v>217552156.0978677</v>
       </c>
-      <c r="H58" s="149">
+      <c r="H58" s="148">
         <f>SUM(H54,H56:H57)</f>
         <v>241451998.91573536</v>
       </c>
-      <c r="I58" s="151">
+      <c r="I58" s="150">
         <f>G58/H58</f>
         <v>0.90101617329658756</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="148" t="s">
+      <c r="B59" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138">
+      <c r="C59" s="137"/>
+      <c r="D59" s="137">
         <v>981000</v>
       </c>
-      <c r="E59" s="149">
+      <c r="E59" s="148">
         <f t="shared" si="38"/>
         <v>981000</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="147" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138">
+      <c r="C60" s="137"/>
+      <c r="D60" s="137">
         <v>817500</v>
       </c>
-      <c r="E60" s="149">
+      <c r="E60" s="148">
         <f t="shared" si="38"/>
         <v>817500</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E61" s="141">
+      <c r="E61" s="140">
         <f>SUM(E53:E60)</f>
         <v>21578220</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="152" t="s">
+      <c r="B62" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -32447,174 +32442,168 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134">
+      <c r="C63" s="133"/>
+      <c r="D63" s="133">
         <v>4150213.0978676924</v>
       </c>
-      <c r="E63" s="141">
+      <c r="E63" s="140">
         <f t="shared" ref="E63:E73" si="39">D63-C63</f>
         <v>4150213.0978676924</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="134">
+      <c r="C64" s="133">
         <v>404950</v>
       </c>
-      <c r="D64" s="134">
+      <c r="D64" s="133">
         <v>9707592</v>
       </c>
-      <c r="E64" s="141">
+      <c r="E64" s="140">
         <f t="shared" si="39"/>
         <v>9302642</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="153" t="s">
+      <c r="B65" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134">
+      <c r="C65" s="133"/>
+      <c r="D65" s="133">
         <v>12892328</v>
       </c>
-      <c r="E65" s="141">
+      <c r="E65" s="140">
         <f t="shared" si="39"/>
         <v>12892328</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="154" t="s">
+      <c r="B66" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="134"/>
-      <c r="D66" s="134">
+      <c r="C66" s="133"/>
+      <c r="D66" s="133">
         <v>3240000</v>
       </c>
-      <c r="E66" s="141">
+      <c r="E66" s="140">
         <f t="shared" si="39"/>
         <v>3240000</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="153" t="s">
+      <c r="B67" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="134">
+      <c r="C67" s="133">
         <v>3564345</v>
       </c>
-      <c r="D67" s="134">
+      <c r="D67" s="133">
         <v>10679563.097867692</v>
       </c>
-      <c r="E67" s="141">
+      <c r="E67" s="140">
         <f t="shared" si="39"/>
         <v>7115218.0978676919</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="154" t="s">
+      <c r="B68" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="134"/>
-      <c r="D68" s="134">
+      <c r="C68" s="133"/>
+      <c r="D68" s="133">
         <v>8475535</v>
       </c>
-      <c r="E68" s="141">
+      <c r="E68" s="140">
         <f t="shared" si="39"/>
         <v>8475535</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="154" t="s">
+      <c r="B69" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="134"/>
-      <c r="D69" s="134">
+      <c r="C69" s="133"/>
+      <c r="D69" s="133">
         <v>10406016</v>
       </c>
-      <c r="E69" s="141">
+      <c r="E69" s="140">
         <f t="shared" si="39"/>
         <v>10406016</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="155" t="s">
+      <c r="B70" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="134"/>
-      <c r="D70" s="134">
+      <c r="C70" s="133"/>
+      <c r="D70" s="133">
         <v>4050000</v>
       </c>
-      <c r="E70" s="141">
+      <c r="E70" s="140">
         <f t="shared" si="39"/>
         <v>4050000</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="155" t="s">
+      <c r="B71" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="134"/>
-      <c r="D71" s="134">
+      <c r="C71" s="133"/>
+      <c r="D71" s="133">
         <v>1898221.5</v>
       </c>
-      <c r="E71" s="141">
+      <c r="E71" s="140">
         <f t="shared" si="39"/>
         <v>1898221.5</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="C72" s="134"/>
-      <c r="D72" s="134">
+      <c r="C72" s="133"/>
+      <c r="D72" s="133">
         <v>3240000</v>
       </c>
-      <c r="E72" s="141">
+      <c r="E72" s="140">
         <f t="shared" si="39"/>
         <v>3240000</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="156" t="s">
+      <c r="B73" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="134">
+      <c r="C73" s="133">
         <v>4189677</v>
       </c>
-      <c r="D73" s="134">
+      <c r="D73" s="133">
         <v>9389770</v>
       </c>
-      <c r="E73" s="141">
+      <c r="E73" s="140">
         <f t="shared" si="39"/>
         <v>5200093</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E74" s="141">
+      <c r="E74" s="140">
         <f>SUM(E63:E73)</f>
         <v>69970266.69573538</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E75" s="141">
+      <c r="E75" s="140">
         <f>E63+E64+E65</f>
         <v>26345183.09786769</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32631,6 +32620,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">

--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
   <si>
     <t>SEDE</t>
   </si>
@@ -446,11 +446,6 @@
   </si>
   <si>
     <t>MONTELIBANO</t>
-  </si>
-  <si>
-    <t>LISTADO DE EQUIPOS TODAS LAS SEDES DAVITA ejemplo otro3
-VALOR DE MANTENIMIENTO 
-INCLUYE LOS VIATICOS PERSONAL, SEGUROS, MOVIMIENTO DE EQUIPOS Y MASAS</t>
   </si>
   <si>
     <t>jorge garcia</t>
@@ -1502,7 +1497,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1526,26 +1539,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -28040,7 +28035,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28057,9 +28052,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="161" t="s">
-        <v>137</v>
-      </c>
+      <c r="A1" s="161"/>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
       <c r="D1" s="162"/>
@@ -28099,7 +28092,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -28151,7 +28144,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -28177,7 +28170,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -28203,22 +28196,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>100000</v>
@@ -28229,22 +28222,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>234560000</v>
@@ -28255,7 +28248,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -28300,7 +28293,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="157">
         <v>6000000</v>
@@ -28308,7 +28301,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" s="158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="157">
         <v>70000000</v>
@@ -28685,91 +28678,91 @@
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="163" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="174" t="s">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="163"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="167" t="s">
+      <c r="J3" s="168"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="174" t="s">
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="163" t="s">
+      <c r="P3" s="168"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="164" t="s">
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="167" t="s">
+      <c r="V3" s="171"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="174" t="s">
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="163" t="s">
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="174" t="s">
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="167" t="s">
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="174" t="s">
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="163"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="163" t="s">
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="169"/>
+      <c r="AP3" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="164" t="s">
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="166"/>
-      <c r="AV3" s="167" t="s">
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="167"/>
-      <c r="AX3" s="167"/>
-      <c r="AY3" s="168" t="s">
+      <c r="AW3" s="173"/>
+      <c r="AX3" s="173"/>
+      <c r="AY3" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="169"/>
-      <c r="BA3" s="170"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="176"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -28927,7 +28920,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="163" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -29137,7 +29130,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="37" t="s">
         <v>100</v>
       </c>
@@ -29345,7 +29338,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="37" t="s">
         <v>101</v>
       </c>
@@ -29553,7 +29546,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
@@ -29761,7 +29754,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
@@ -29970,7 +29963,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="163" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -30181,7 +30174,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="172"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="37" t="s">
         <v>100</v>
       </c>
@@ -30390,7 +30383,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="172"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
@@ -30599,7 +30592,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="37" t="s">
         <v>102</v>
       </c>
@@ -30808,7 +30801,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="176"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="85" t="s">
         <v>105</v>
       </c>
@@ -31018,7 +31011,7 @@
     </row>
     <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="163" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -31230,7 +31223,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="172"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
@@ -31440,7 +31433,7 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="37" t="s">
         <v>101</v>
       </c>
@@ -31650,7 +31643,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="37" t="s">
         <v>102</v>
       </c>
@@ -31860,7 +31853,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="176"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="85" t="s">
         <v>107</v>
       </c>
@@ -32084,7 +32077,7 @@
     </row>
     <row r="22" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L22" s="159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M22" s="160">
         <v>600000</v>
@@ -32178,10 +32171,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="177"/>
+      <c r="C38" s="166"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="139" t="s">
@@ -32213,10 +32206,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="177"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32648,12 +32641,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32670,6 +32657,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">

--- a/excelejemplo.xlsx
+++ b/excelejemplo.xlsx
@@ -1500,7 +1500,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,26 +1542,8 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1657,6 +1657,879 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Invent equipos, precios mantto'!$G$3:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>AF-006377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AF-006389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AF-006388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AF-006399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AF-006420</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Invent equipos, precios mantto'!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"\ #,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>38023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234560000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE8B-4FF0-8737-672647E17FD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1413495583"/>
+        <c:axId val="1413495999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1413495583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1413495999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1413495999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1413495583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28036,9 +28909,9 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28316,6 +29189,7 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28680,91 +29554,91 @@
     </row>
     <row r="2" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:53" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="163" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="168" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="174" t="s">
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="163"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="167" t="s">
+      <c r="J3" s="168"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="174" t="s">
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="163" t="s">
+      <c r="P3" s="168"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="164" t="s">
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="167" t="s">
+      <c r="V3" s="171"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="174" t="s">
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="175"/>
-      <c r="AD3" s="163" t="s">
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="174" t="s">
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="175"/>
-      <c r="AJ3" s="167" t="s">
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="174" t="s">
+      <c r="AK3" s="173"/>
+      <c r="AL3" s="173"/>
+      <c r="AM3" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="AN3" s="163"/>
-      <c r="AO3" s="175"/>
-      <c r="AP3" s="163" t="s">
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="169"/>
+      <c r="AP3" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="164" t="s">
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="AT3" s="165"/>
-      <c r="AU3" s="166"/>
-      <c r="AV3" s="167" t="s">
+      <c r="AT3" s="171"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="167"/>
-      <c r="AX3" s="167"/>
-      <c r="AY3" s="168" t="s">
+      <c r="AW3" s="173"/>
+      <c r="AX3" s="173"/>
+      <c r="AY3" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="AZ3" s="169"/>
-      <c r="BA3" s="170"/>
+      <c r="AZ3" s="175"/>
+      <c r="BA3" s="176"/>
     </row>
     <row r="4" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
@@ -28922,7 +29796,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="163" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -29132,7 +30006,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="37" t="s">
         <v>100</v>
       </c>
@@ -29340,7 +30214,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="37" t="s">
         <v>101</v>
       </c>
@@ -29548,7 +30422,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
@@ -29756,7 +30630,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="173"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="49" t="s">
         <v>103</v>
       </c>
@@ -29965,7 +30839,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="163" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -30176,7 +31050,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="172"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="37" t="s">
         <v>100</v>
       </c>
@@ -30385,7 +31259,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="172"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="37" t="s">
         <v>101</v>
       </c>
@@ -30594,7 +31468,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="37" t="s">
         <v>102</v>
       </c>
@@ -30803,7 +31677,7 @@
       </c>
     </row>
     <row r="14" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="176"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="85" t="s">
         <v>105</v>
       </c>
@@ -31013,7 +31887,7 @@
     </row>
     <row r="15" spans="1:53" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="163" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -31225,7 +32099,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A17" s="172"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="37" t="s">
         <v>100</v>
       </c>
@@ -31435,7 +32309,7 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="37" t="s">
         <v>101</v>
       </c>
@@ -31645,7 +32519,7 @@
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="37" t="s">
         <v>102</v>
       </c>
@@ -31855,7 +32729,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="62" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="176"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="85" t="s">
         <v>107</v>
       </c>
@@ -32173,10 +33047,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="177"/>
+      <c r="C38" s="166"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" s="139" t="s">
@@ -32208,10 +33082,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="166" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="177"/>
+      <c r="C44" s="166"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -32643,12 +33517,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AU3"/>
     <mergeCell ref="AV3:AX3"/>
@@ -32665,6 +33533,12 @@
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
